--- a/Engine/Unity/3.x/Learning_01/Example/Packages/.module.unitycommon@1.7.0/Templates/Tables/StringInfo/T_StrTable.xlsx
+++ b/Engine/Unity/3.x/Learning_01/Example/Packages/.module.unitycommon@1.7.0/Templates/Tables/StringInfo/T_StrTable.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="191">
   <si>
     <t>ID</t>
   </si>
@@ -136,66 +136,6 @@
     <t>A new version has been released.\nWould you like to update it?</t>
   </si>
   <si>
-    <t>PURCHASE_P_SUCCESS_MSG</t>
-  </si>
-  <si>
-    <t>결제 성공 팝업 메세지</t>
-  </si>
-  <si>
-    <t>해당 상품을 구입했습니다.</t>
-  </si>
-  <si>
-    <t>You have successfully purchased this product.</t>
-  </si>
-  <si>
-    <t>PURCHASE_P_FAIL_MSG</t>
-  </si>
-  <si>
-    <t>결제 실패 팝업 메세지</t>
-  </si>
-  <si>
-    <t>해당 상품 구입에 실패했습니다.</t>
-  </si>
-  <si>
-    <t>You have failed to purchase this product.</t>
-  </si>
-  <si>
-    <t>RESTORE_P_SUCCESS_MSG</t>
-  </si>
-  <si>
-    <t>복원 성공 팝업 메세지</t>
-  </si>
-  <si>
-    <t>상품을 복원했습니다.</t>
-  </si>
-  <si>
-    <t>The product has been restored.</t>
-  </si>
-  <si>
-    <t>RESTORE_P_FAIL_MSG</t>
-  </si>
-  <si>
-    <t>복원 실패 팝업 메세지</t>
-  </si>
-  <si>
-    <t>상품 복원에 실패했습니다.</t>
-  </si>
-  <si>
-    <t>Failed to restore the product.</t>
-  </si>
-  <si>
-    <t>START_SM_LOADING_TEXT</t>
-  </si>
-  <si>
-    <t>시작 씬 관리자 로딩 텍스트</t>
-  </si>
-  <si>
-    <t>로딩 중</t>
-  </si>
-  <si>
-    <t>Loading</t>
-  </si>
-  <si>
     <t>AGREE_P_SERVICES_TITLE</t>
   </si>
   <si>
@@ -256,16 +196,16 @@
     <t>and</t>
   </si>
   <si>
-    <t>AGREE_P_SERVICES_URL_TEXT</t>
+    <t>AGREE_P_SERVICES_BTN_TEXT</t>
   </si>
   <si>
-    <t>약관 동의 팝업 서비스 URL 텍스트</t>
+    <t>약관 동의 팝업 서비스 버튼 텍스트</t>
   </si>
   <si>
-    <t>AGREE_P_PRIVACY_URL_TEXT</t>
+    <t>AGREE_P_PRIVACY_BTN_TEXT</t>
   </si>
   <si>
-    <t>약관 동의 팝업 개인 정보 URL 텍스트</t>
+    <t>약관 동의 팝업 개인 정보 버튼 텍스트</t>
   </si>
   <si>
     <t>AGREE_P_OK_BTN_TEXT</t>
@@ -338,6 +278,204 @@
   </si>
   <si>
     <t>Next</t>
+  </si>
+  <si>
+    <t>START_SM_LOADING_TEXT</t>
+  </si>
+  <si>
+    <t>시작 씬 관리자 로딩 텍스트</t>
+  </si>
+  <si>
+    <t>로딩 중</t>
+  </si>
+  <si>
+    <t>Loading</t>
+  </si>
+  <si>
+    <t>COMMON_LOGIN_SUCCESS_MSG</t>
+  </si>
+  <si>
+    <t>공용 로그인 성공 메세지</t>
+  </si>
+  <si>
+    <t>로그인했습니다.</t>
+  </si>
+  <si>
+    <t>You have successfully login</t>
+  </si>
+  <si>
+    <t>COMMON_LOGIN_FAIL_MSG</t>
+  </si>
+  <si>
+    <t>공용 로그인 실패 메세지</t>
+  </si>
+  <si>
+    <t>로그인에 실패했습니다.</t>
+  </si>
+  <si>
+    <t>You have failed to login</t>
+  </si>
+  <si>
+    <t>COMMON_LOGOUT_SUCCESS_MSG</t>
+  </si>
+  <si>
+    <t>공용 로그아웃 성공 메세지</t>
+  </si>
+  <si>
+    <t>로그아웃했습니다.</t>
+  </si>
+  <si>
+    <t>You have successfully logout</t>
+  </si>
+  <si>
+    <t>COMMON_LOGOUT_FAIL_MSG</t>
+  </si>
+  <si>
+    <t>공용 로그아웃 실패 메세지</t>
+  </si>
+  <si>
+    <t>로그아웃에 실패했습니다.</t>
+  </si>
+  <si>
+    <t>You have failed to logout</t>
+  </si>
+  <si>
+    <t>COMMON_LOAD_SUCCESS_MSG</t>
+  </si>
+  <si>
+    <t>공용 로드 성공 메세지</t>
+  </si>
+  <si>
+    <t>진행 상황을 로드했습니다.</t>
+  </si>
+  <si>
+    <t>You have successfully loaded progress.</t>
+  </si>
+  <si>
+    <t>COMMON_LOAD_FAIL_MSG</t>
+  </si>
+  <si>
+    <t>공용 로드 실패 메세지</t>
+  </si>
+  <si>
+    <t>진행 상황 로드에 실패했습니다.</t>
+  </si>
+  <si>
+    <t>You have failed to load progress.</t>
+  </si>
+  <si>
+    <t>COMMON_SAVE_SUCCESS_MSG</t>
+  </si>
+  <si>
+    <t>공용 저장 성공 메세지</t>
+  </si>
+  <si>
+    <t>진행 상황을 저장했습니다.</t>
+  </si>
+  <si>
+    <t>You have successfully saved progress.</t>
+  </si>
+  <si>
+    <t>COMMON_SAVE_FAIL_MSG</t>
+  </si>
+  <si>
+    <t>공용 저장 실패 메세지</t>
+  </si>
+  <si>
+    <t>진행 상황 저장에 실패했습니다.</t>
+  </si>
+  <si>
+    <t>You have failed to save progress.</t>
+  </si>
+  <si>
+    <t>COMMON_PURCHASE_SUCCESS_MSG</t>
+  </si>
+  <si>
+    <t>공용 결제 성공 메세지</t>
+  </si>
+  <si>
+    <t>해당 상품을 구입했습니다.</t>
+  </si>
+  <si>
+    <t>You have successfully purchased this product.</t>
+  </si>
+  <si>
+    <t>COMMON_PURCHASE_FAIL_MSG</t>
+  </si>
+  <si>
+    <t>공용 결제 실패 메세지</t>
+  </si>
+  <si>
+    <t>해당 상품 구입에 실패했습니다.</t>
+  </si>
+  <si>
+    <t>You have failed to purchase this product.</t>
+  </si>
+  <si>
+    <t>COMMON_RESTORE_SUCCESS_MSG</t>
+  </si>
+  <si>
+    <t>공용 복원 성공 메세지</t>
+  </si>
+  <si>
+    <t>상품을 복원했습니다.</t>
+  </si>
+  <si>
+    <t>The product has been restored.</t>
+  </si>
+  <si>
+    <t>COMMON_RESTORE_FAIL_MSG</t>
+  </si>
+  <si>
+    <t>공용 복원 실패 메세지</t>
+  </si>
+  <si>
+    <t>상품 복원에 실패했습니다.</t>
+  </si>
+  <si>
+    <t>Failed to restore the product.</t>
+  </si>
+  <si>
+    <t>COMMON_GET_TEXT</t>
+  </si>
+  <si>
+    <t>공용 획득 텍스트</t>
+  </si>
+  <si>
+    <t>획득</t>
+  </si>
+  <si>
+    <t>Get</t>
+  </si>
+  <si>
+    <t>COMMON_NEXT_TEXT</t>
+  </si>
+  <si>
+    <t>공용 다음 텍스트</t>
+  </si>
+  <si>
+    <t>COMMON_LEAVE_TEXT</t>
+  </si>
+  <si>
+    <t>공용 나가기 텍스트</t>
+  </si>
+  <si>
+    <t>나가기</t>
+  </si>
+  <si>
+    <t>Leave</t>
+  </si>
+  <si>
+    <t>COMMON_WATCH_ADS_TEXT</t>
+  </si>
+  <si>
+    <t>공용 광고 시청 텍스트</t>
+  </si>
+  <si>
+    <t>광고 시청</t>
+  </si>
+  <si>
+    <t>Watch Ads</t>
   </si>
   <si>
     <t>COMMON_LEVEL_TEXT</t>
@@ -556,7 +694,7 @@
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -564,38 +702,38 @@
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="5" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf borderId="6" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="7" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="8" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="4" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="4" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="5" fillId="4" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="5" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="4" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="6" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -605,7 +743,7 @@
     <xf borderId="7" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="8" fillId="4" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -824,7 +962,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="37.71"/>
     <col customWidth="1" min="2" max="2" width="14.43"/>
-    <col customWidth="1" min="3" max="3" width="29.57"/>
+    <col customWidth="1" min="3" max="3" width="29.0"/>
     <col customWidth="1" min="4" max="4" width="59.14"/>
     <col customWidth="1" min="5" max="5" width="54.71"/>
     <col customWidth="1" min="6" max="6" width="14.43"/>
@@ -1287,96 +1425,96 @@
       <c r="Z12" s="9"/>
     </row>
     <row r="13" ht="15.0" customHeight="1">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="10" t="s">
         <v>49</v>
       </c>
       <c r="B13" s="7">
         <v>0.0</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="12"/>
-      <c r="V13" s="12"/>
-      <c r="W13" s="12"/>
-      <c r="X13" s="12"/>
-      <c r="Y13" s="12"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
       <c r="Z13" s="9"/>
     </row>
     <row r="14" ht="15.0" customHeight="1">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="10" t="s">
         <v>53</v>
       </c>
       <c r="B14" s="7">
         <v>0.0</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="12" t="s">
-        <v>55</v>
+      <c r="D14" s="7" t="s">
+        <v>24</v>
       </c>
-      <c r="E14" s="12" t="s">
-        <v>56</v>
+      <c r="E14" s="7" t="s">
+        <v>24</v>
       </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="12"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
       <c r="Z14" s="9"/>
     </row>
     <row r="15" ht="15.0" customHeight="1">
       <c r="A15" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B15" s="7">
         <v>0.0</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -1402,19 +1540,19 @@
     </row>
     <row r="16" ht="15.0" customHeight="1">
       <c r="A16" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B16" s="7">
         <v>0.0</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -1439,20 +1577,20 @@
       <c r="Z16" s="9"/>
     </row>
     <row r="17" ht="15.0" customHeight="1">
-      <c r="A17" s="10" t="s">
-        <v>65</v>
+      <c r="A17" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="B17" s="7">
         <v>0.0</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>66</v>
+      <c r="C17" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
@@ -1477,20 +1615,20 @@
       <c r="Z17" s="9"/>
     </row>
     <row r="18" ht="15.0" customHeight="1">
-      <c r="A18" s="10" t="s">
-        <v>69</v>
+      <c r="A18" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="B18" s="7">
         <v>0.0</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>70</v>
+      <c r="C18" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
@@ -1516,19 +1654,19 @@
     </row>
     <row r="19" ht="15.0" customHeight="1">
       <c r="A19" s="10" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B19" s="7">
         <v>0.0</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
@@ -1554,19 +1692,19 @@
     </row>
     <row r="20" ht="15.0" customHeight="1">
       <c r="A20" s="10" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B20" s="7">
         <v>0.0</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
@@ -1592,19 +1730,19 @@
     </row>
     <row r="21" ht="15.0" customHeight="1">
       <c r="A21" s="10" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B21" s="7">
         <v>0.0</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>80</v>
+      <c r="D21" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
@@ -1630,19 +1768,19 @@
     </row>
     <row r="22" ht="15.0" customHeight="1">
       <c r="A22" s="10" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B22" s="7">
         <v>0.0</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
@@ -1668,19 +1806,19 @@
     </row>
     <row r="23" ht="15.0" customHeight="1">
       <c r="A23" s="10" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B23" s="7">
         <v>0.0</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
@@ -1706,19 +1844,19 @@
     </row>
     <row r="24" ht="15.0" customHeight="1">
       <c r="A24" s="10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B24" s="7">
         <v>0.0</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
@@ -1744,19 +1882,19 @@
     </row>
     <row r="25" ht="15.0" customHeight="1">
       <c r="A25" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B25" s="7">
         <v>0.0</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
@@ -1781,361 +1919,361 @@
       <c r="Z25" s="9"/>
     </row>
     <row r="26" ht="15.0" customHeight="1">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="12">
         <v>0.0</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
-      <c r="T26" s="7"/>
-      <c r="U26" s="7"/>
-      <c r="V26" s="7"/>
-      <c r="W26" s="7"/>
-      <c r="X26" s="7"/>
-      <c r="Y26" s="7"/>
-      <c r="Z26" s="9"/>
-    </row>
-    <row r="27" ht="15.0" customHeight="1">
-      <c r="A27" s="10" t="s">
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="12"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="12"/>
+      <c r="Y26" s="12"/>
+      <c r="Z26" s="13"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="15">
         <v>0.0</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="7"/>
-      <c r="T27" s="7"/>
-      <c r="U27" s="7"/>
-      <c r="V27" s="7"/>
-      <c r="W27" s="7"/>
-      <c r="X27" s="7"/>
-      <c r="Y27" s="7"/>
-      <c r="Z27" s="9"/>
-    </row>
-    <row r="28" ht="15.0" customHeight="1">
-      <c r="A28" s="10" t="s">
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="16"/>
+      <c r="S27" s="16"/>
+      <c r="T27" s="16"/>
+      <c r="U27" s="16"/>
+      <c r="V27" s="16"/>
+      <c r="W27" s="16"/>
+      <c r="X27" s="16"/>
+      <c r="Y27" s="16"/>
+      <c r="Z27" s="17"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="19">
         <v>0.0</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="7"/>
-      <c r="R28" s="7"/>
-      <c r="S28" s="7"/>
-      <c r="T28" s="7"/>
-      <c r="U28" s="7"/>
-      <c r="V28" s="7"/>
-      <c r="W28" s="7"/>
-      <c r="X28" s="7"/>
-      <c r="Y28" s="7"/>
-      <c r="Z28" s="9"/>
-    </row>
-    <row r="29" ht="15.0" customHeight="1">
-      <c r="A29" s="10" t="s">
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="20"/>
+      <c r="S28" s="20"/>
+      <c r="T28" s="20"/>
+      <c r="U28" s="20"/>
+      <c r="V28" s="20"/>
+      <c r="W28" s="20"/>
+      <c r="X28" s="20"/>
+      <c r="Y28" s="20"/>
+      <c r="Z28" s="21"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="19">
         <v>0.0</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7"/>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="7"/>
-      <c r="S29" s="7"/>
-      <c r="T29" s="7"/>
-      <c r="U29" s="7"/>
-      <c r="V29" s="7"/>
-      <c r="W29" s="7"/>
-      <c r="X29" s="7"/>
-      <c r="Y29" s="7"/>
-      <c r="Z29" s="9"/>
-    </row>
-    <row r="30" ht="15.0" customHeight="1">
-      <c r="A30" s="13" t="s">
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="20"/>
+      <c r="R29" s="20"/>
+      <c r="S29" s="20"/>
+      <c r="T29" s="20"/>
+      <c r="U29" s="20"/>
+      <c r="V29" s="20"/>
+      <c r="W29" s="20"/>
+      <c r="X29" s="20"/>
+      <c r="Y29" s="20"/>
+      <c r="Z29" s="21"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="B30" s="14">
+      <c r="B30" s="19">
         <v>0.0</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="E30" s="14" t="s">
+      <c r="E30" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="14"/>
-      <c r="S30" s="14"/>
-      <c r="T30" s="14"/>
-      <c r="U30" s="14"/>
-      <c r="V30" s="14"/>
-      <c r="W30" s="14"/>
-      <c r="X30" s="14"/>
-      <c r="Y30" s="14"/>
-      <c r="Z30" s="15"/>
-    </row>
-    <row r="31" ht="15.0" customHeight="1">
-      <c r="A31" s="16" t="s">
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="20"/>
+      <c r="R30" s="20"/>
+      <c r="S30" s="20"/>
+      <c r="T30" s="20"/>
+      <c r="U30" s="20"/>
+      <c r="V30" s="20"/>
+      <c r="W30" s="20"/>
+      <c r="X30" s="20"/>
+      <c r="Y30" s="20"/>
+      <c r="Z30" s="21"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="B31" s="17">
+      <c r="B31" s="19">
         <v>0.0</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="D31" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="E31" s="17" t="s">
+      <c r="E31" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="18"/>
-      <c r="O31" s="18"/>
-      <c r="P31" s="18"/>
-      <c r="Q31" s="18"/>
-      <c r="R31" s="18"/>
-      <c r="S31" s="18"/>
-      <c r="T31" s="18"/>
-      <c r="U31" s="18"/>
-      <c r="V31" s="18"/>
-      <c r="W31" s="18"/>
-      <c r="X31" s="18"/>
-      <c r="Y31" s="18"/>
-      <c r="Z31" s="19"/>
-    </row>
-    <row r="32" ht="15.0" customHeight="1">
-      <c r="A32" s="20" t="s">
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="20"/>
+      <c r="S31" s="20"/>
+      <c r="T31" s="20"/>
+      <c r="U31" s="20"/>
+      <c r="V31" s="20"/>
+      <c r="W31" s="20"/>
+      <c r="X31" s="20"/>
+      <c r="Y31" s="20"/>
+      <c r="Z31" s="21"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="B32" s="21">
+      <c r="B32" s="19">
         <v>0.0</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="D32" s="21" t="s">
+      <c r="D32" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="E32" s="21" t="s">
+      <c r="E32" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="22"/>
-      <c r="O32" s="22"/>
-      <c r="P32" s="22"/>
-      <c r="Q32" s="22"/>
-      <c r="R32" s="22"/>
-      <c r="S32" s="22"/>
-      <c r="T32" s="22"/>
-      <c r="U32" s="22"/>
-      <c r="V32" s="22"/>
-      <c r="W32" s="22"/>
-      <c r="X32" s="22"/>
-      <c r="Y32" s="22"/>
-      <c r="Z32" s="23"/>
-    </row>
-    <row r="33" ht="15.0" customHeight="1">
-      <c r="A33" s="20" t="s">
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="20"/>
+      <c r="R32" s="20"/>
+      <c r="S32" s="20"/>
+      <c r="T32" s="20"/>
+      <c r="U32" s="20"/>
+      <c r="V32" s="20"/>
+      <c r="W32" s="20"/>
+      <c r="X32" s="20"/>
+      <c r="Y32" s="20"/>
+      <c r="Z32" s="21"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="B33" s="21">
+      <c r="B33" s="19">
         <v>0.0</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="C33" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="D33" s="21" t="s">
+      <c r="D33" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="E33" s="21" t="s">
+      <c r="E33" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="22"/>
-      <c r="N33" s="22"/>
-      <c r="O33" s="22"/>
-      <c r="P33" s="22"/>
-      <c r="Q33" s="22"/>
-      <c r="R33" s="22"/>
-      <c r="S33" s="22"/>
-      <c r="T33" s="22"/>
-      <c r="U33" s="22"/>
-      <c r="V33" s="22"/>
-      <c r="W33" s="22"/>
-      <c r="X33" s="22"/>
-      <c r="Y33" s="22"/>
-      <c r="Z33" s="23"/>
-    </row>
-    <row r="34" ht="15.0" customHeight="1">
-      <c r="A34" s="20" t="s">
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="20"/>
+      <c r="Q33" s="20"/>
+      <c r="R33" s="20"/>
+      <c r="S33" s="20"/>
+      <c r="T33" s="20"/>
+      <c r="U33" s="20"/>
+      <c r="V33" s="20"/>
+      <c r="W33" s="20"/>
+      <c r="X33" s="20"/>
+      <c r="Y33" s="20"/>
+      <c r="Z33" s="21"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="B34" s="21">
+      <c r="B34" s="19">
         <v>0.0</v>
       </c>
-      <c r="C34" s="21" t="s">
+      <c r="C34" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="D34" s="21" t="s">
+      <c r="D34" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="E34" s="21" t="s">
+      <c r="E34" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="22"/>
-      <c r="M34" s="22"/>
-      <c r="N34" s="22"/>
-      <c r="O34" s="22"/>
-      <c r="P34" s="22"/>
-      <c r="Q34" s="22"/>
-      <c r="R34" s="22"/>
-      <c r="S34" s="22"/>
-      <c r="T34" s="22"/>
-      <c r="U34" s="22"/>
-      <c r="V34" s="22"/>
-      <c r="W34" s="22"/>
-      <c r="X34" s="22"/>
-      <c r="Y34" s="22"/>
-      <c r="Z34" s="23"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="20"/>
+      <c r="R34" s="20"/>
+      <c r="S34" s="20"/>
+      <c r="T34" s="20"/>
+      <c r="U34" s="20"/>
+      <c r="V34" s="20"/>
+      <c r="W34" s="20"/>
+      <c r="X34" s="20"/>
+      <c r="Y34" s="20"/>
+      <c r="Z34" s="21"/>
     </row>
     <row r="35" ht="15.0" customHeight="1">
-      <c r="A35" s="20" t="s">
+      <c r="A35" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="B35" s="21">
+      <c r="B35" s="22">
         <v>0.0</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="C35" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="D35" s="21" t="s">
+      <c r="D35" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="E35" s="21" t="s">
+      <c r="E35" s="22" t="s">
         <v>128</v>
       </c>
       <c r="F35" s="22"/>
@@ -2158,22 +2296,22 @@
       <c r="W35" s="22"/>
       <c r="X35" s="22"/>
       <c r="Y35" s="22"/>
-      <c r="Z35" s="23"/>
+      <c r="Z35" s="21"/>
     </row>
     <row r="36" ht="15.0" customHeight="1">
-      <c r="A36" s="20" t="s">
+      <c r="A36" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="B36" s="21">
+      <c r="B36" s="22">
         <v>0.0</v>
       </c>
-      <c r="C36" s="21" t="s">
+      <c r="C36" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="D36" s="21" t="s">
+      <c r="D36" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="E36" s="21" t="s">
+      <c r="E36" s="22" t="s">
         <v>132</v>
       </c>
       <c r="F36" s="22"/>
@@ -2196,22 +2334,22 @@
       <c r="W36" s="22"/>
       <c r="X36" s="22"/>
       <c r="Y36" s="22"/>
-      <c r="Z36" s="23"/>
+      <c r="Z36" s="21"/>
     </row>
     <row r="37" ht="15.0" customHeight="1">
-      <c r="A37" s="24" t="s">
+      <c r="A37" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="B37" s="25">
+      <c r="B37" s="22">
         <v>0.0</v>
       </c>
-      <c r="C37" s="26" t="s">
+      <c r="C37" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="D37" s="26" t="s">
+      <c r="D37" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="E37" s="26" t="s">
+      <c r="E37" s="25" t="s">
         <v>136</v>
       </c>
       <c r="F37" s="25"/>
@@ -2234,22 +2372,22 @@
       <c r="W37" s="25"/>
       <c r="X37" s="25"/>
       <c r="Y37" s="25"/>
-      <c r="Z37" s="23"/>
+      <c r="Z37" s="21"/>
     </row>
     <row r="38" ht="15.0" customHeight="1">
-      <c r="A38" s="24" t="s">
+      <c r="A38" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="B38" s="25">
+      <c r="B38" s="22">
         <v>0.0</v>
       </c>
-      <c r="C38" s="26" t="s">
+      <c r="C38" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="D38" s="26" t="s">
+      <c r="D38" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="E38" s="26" t="s">
+      <c r="E38" s="25" t="s">
         <v>140</v>
       </c>
       <c r="F38" s="25"/>
@@ -2272,381 +2410,501 @@
       <c r="W38" s="25"/>
       <c r="X38" s="25"/>
       <c r="Y38" s="25"/>
-      <c r="Z38" s="23"/>
+      <c r="Z38" s="21"/>
     </row>
     <row r="39" ht="15.0" customHeight="1">
-      <c r="A39" s="27" t="s">
+      <c r="A39" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="B39" s="28">
+      <c r="B39" s="19">
         <v>0.0</v>
       </c>
-      <c r="C39" s="29" t="s">
+      <c r="C39" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="D39" s="29" t="s">
+      <c r="D39" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="E39" s="29" t="s">
+      <c r="E39" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="28"/>
-      <c r="L39" s="28"/>
-      <c r="M39" s="28"/>
-      <c r="N39" s="28"/>
-      <c r="O39" s="28"/>
-      <c r="P39" s="28"/>
-      <c r="Q39" s="28"/>
-      <c r="R39" s="28"/>
-      <c r="S39" s="28"/>
-      <c r="T39" s="28"/>
-      <c r="U39" s="28"/>
-      <c r="V39" s="28"/>
-      <c r="W39" s="28"/>
-      <c r="X39" s="28"/>
-      <c r="Y39" s="28"/>
-      <c r="Z39" s="30"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="20"/>
+      <c r="O39" s="20"/>
+      <c r="P39" s="20"/>
+      <c r="Q39" s="20"/>
+      <c r="R39" s="20"/>
+      <c r="S39" s="20"/>
+      <c r="T39" s="20"/>
+      <c r="U39" s="20"/>
+      <c r="V39" s="20"/>
+      <c r="W39" s="20"/>
+      <c r="X39" s="20"/>
+      <c r="Y39" s="20"/>
+      <c r="Z39" s="21"/>
     </row>
     <row r="40" ht="15.0" customHeight="1">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
-      <c r="R40" s="2"/>
-      <c r="S40" s="2"/>
-      <c r="T40" s="2"/>
-      <c r="U40" s="2"/>
-      <c r="V40" s="2"/>
-      <c r="W40" s="2"/>
-      <c r="X40" s="2"/>
-      <c r="Y40" s="2"/>
-      <c r="Z40" s="2"/>
+      <c r="A40" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="B40" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="20"/>
+      <c r="O40" s="20"/>
+      <c r="P40" s="20"/>
+      <c r="Q40" s="20"/>
+      <c r="R40" s="20"/>
+      <c r="S40" s="20"/>
+      <c r="T40" s="20"/>
+      <c r="U40" s="20"/>
+      <c r="V40" s="20"/>
+      <c r="W40" s="20"/>
+      <c r="X40" s="20"/>
+      <c r="Y40" s="20"/>
+      <c r="Z40" s="21"/>
     </row>
     <row r="41" ht="15.0" customHeight="1">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
-      <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
-      <c r="U41" s="2"/>
-      <c r="V41" s="2"/>
-      <c r="W41" s="2"/>
-      <c r="X41" s="2"/>
-      <c r="Y41" s="2"/>
-      <c r="Z41" s="2"/>
+      <c r="A41" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="B41" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="E41" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="20"/>
+      <c r="M41" s="20"/>
+      <c r="N41" s="20"/>
+      <c r="O41" s="20"/>
+      <c r="P41" s="20"/>
+      <c r="Q41" s="20"/>
+      <c r="R41" s="20"/>
+      <c r="S41" s="20"/>
+      <c r="T41" s="20"/>
+      <c r="U41" s="20"/>
+      <c r="V41" s="20"/>
+      <c r="W41" s="20"/>
+      <c r="X41" s="20"/>
+      <c r="Y41" s="20"/>
+      <c r="Z41" s="21"/>
     </row>
     <row r="42" ht="15.0" customHeight="1">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
-      <c r="U42" s="2"/>
-      <c r="V42" s="2"/>
-      <c r="W42" s="2"/>
-      <c r="X42" s="2"/>
-      <c r="Y42" s="2"/>
-      <c r="Z42" s="2"/>
+      <c r="A42" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="B42" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="E42" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="20"/>
+      <c r="N42" s="20"/>
+      <c r="O42" s="20"/>
+      <c r="P42" s="20"/>
+      <c r="Q42" s="20"/>
+      <c r="R42" s="20"/>
+      <c r="S42" s="20"/>
+      <c r="T42" s="20"/>
+      <c r="U42" s="20"/>
+      <c r="V42" s="20"/>
+      <c r="W42" s="20"/>
+      <c r="X42" s="20"/>
+      <c r="Y42" s="20"/>
+      <c r="Z42" s="21"/>
     </row>
     <row r="43" ht="15.0" customHeight="1">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
-      <c r="R43" s="2"/>
-      <c r="S43" s="2"/>
-      <c r="T43" s="2"/>
-      <c r="U43" s="2"/>
-      <c r="V43" s="2"/>
-      <c r="W43" s="2"/>
-      <c r="X43" s="2"/>
-      <c r="Y43" s="2"/>
-      <c r="Z43" s="2"/>
+      <c r="A43" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="B43" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="E43" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="20"/>
+      <c r="M43" s="20"/>
+      <c r="N43" s="20"/>
+      <c r="O43" s="20"/>
+      <c r="P43" s="20"/>
+      <c r="Q43" s="20"/>
+      <c r="R43" s="20"/>
+      <c r="S43" s="20"/>
+      <c r="T43" s="20"/>
+      <c r="U43" s="20"/>
+      <c r="V43" s="20"/>
+      <c r="W43" s="20"/>
+      <c r="X43" s="20"/>
+      <c r="Y43" s="20"/>
+      <c r="Z43" s="21"/>
     </row>
     <row r="44" ht="15.0" customHeight="1">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
-      <c r="R44" s="2"/>
-      <c r="S44" s="2"/>
-      <c r="T44" s="2"/>
-      <c r="U44" s="2"/>
-      <c r="V44" s="2"/>
-      <c r="W44" s="2"/>
-      <c r="X44" s="2"/>
-      <c r="Y44" s="2"/>
-      <c r="Z44" s="2"/>
+      <c r="A44" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="B44" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="E44" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="20"/>
+      <c r="L44" s="20"/>
+      <c r="M44" s="20"/>
+      <c r="N44" s="20"/>
+      <c r="O44" s="20"/>
+      <c r="P44" s="20"/>
+      <c r="Q44" s="20"/>
+      <c r="R44" s="20"/>
+      <c r="S44" s="20"/>
+      <c r="T44" s="20"/>
+      <c r="U44" s="20"/>
+      <c r="V44" s="20"/>
+      <c r="W44" s="20"/>
+      <c r="X44" s="20"/>
+      <c r="Y44" s="20"/>
+      <c r="Z44" s="21"/>
     </row>
     <row r="45" ht="15.0" customHeight="1">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
-      <c r="P45" s="2"/>
-      <c r="Q45" s="2"/>
-      <c r="R45" s="2"/>
-      <c r="S45" s="2"/>
-      <c r="T45" s="2"/>
-      <c r="U45" s="2"/>
-      <c r="V45" s="2"/>
-      <c r="W45" s="2"/>
-      <c r="X45" s="2"/>
-      <c r="Y45" s="2"/>
-      <c r="Z45" s="2"/>
+      <c r="A45" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="B45" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="20"/>
+      <c r="L45" s="20"/>
+      <c r="M45" s="20"/>
+      <c r="N45" s="20"/>
+      <c r="O45" s="20"/>
+      <c r="P45" s="20"/>
+      <c r="Q45" s="20"/>
+      <c r="R45" s="20"/>
+      <c r="S45" s="20"/>
+      <c r="T45" s="20"/>
+      <c r="U45" s="20"/>
+      <c r="V45" s="20"/>
+      <c r="W45" s="20"/>
+      <c r="X45" s="20"/>
+      <c r="Y45" s="20"/>
+      <c r="Z45" s="21"/>
     </row>
     <row r="46" ht="15.0" customHeight="1">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
-      <c r="P46" s="2"/>
-      <c r="Q46" s="2"/>
-      <c r="R46" s="2"/>
-      <c r="S46" s="2"/>
-      <c r="T46" s="2"/>
-      <c r="U46" s="2"/>
-      <c r="V46" s="2"/>
-      <c r="W46" s="2"/>
-      <c r="X46" s="2"/>
-      <c r="Y46" s="2"/>
-      <c r="Z46" s="2"/>
+      <c r="A46" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="B46" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="E46" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="20"/>
+      <c r="K46" s="20"/>
+      <c r="L46" s="20"/>
+      <c r="M46" s="20"/>
+      <c r="N46" s="20"/>
+      <c r="O46" s="20"/>
+      <c r="P46" s="20"/>
+      <c r="Q46" s="20"/>
+      <c r="R46" s="20"/>
+      <c r="S46" s="20"/>
+      <c r="T46" s="20"/>
+      <c r="U46" s="20"/>
+      <c r="V46" s="20"/>
+      <c r="W46" s="20"/>
+      <c r="X46" s="20"/>
+      <c r="Y46" s="20"/>
+      <c r="Z46" s="21"/>
     </row>
     <row r="47" ht="15.0" customHeight="1">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
-      <c r="Q47" s="2"/>
-      <c r="R47" s="2"/>
-      <c r="S47" s="2"/>
-      <c r="T47" s="2"/>
-      <c r="U47" s="2"/>
-      <c r="V47" s="2"/>
-      <c r="W47" s="2"/>
-      <c r="X47" s="2"/>
-      <c r="Y47" s="2"/>
-      <c r="Z47" s="2"/>
+      <c r="A47" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="B47" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="E47" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="20"/>
+      <c r="K47" s="20"/>
+      <c r="L47" s="20"/>
+      <c r="M47" s="20"/>
+      <c r="N47" s="20"/>
+      <c r="O47" s="20"/>
+      <c r="P47" s="20"/>
+      <c r="Q47" s="20"/>
+      <c r="R47" s="20"/>
+      <c r="S47" s="20"/>
+      <c r="T47" s="20"/>
+      <c r="U47" s="20"/>
+      <c r="V47" s="20"/>
+      <c r="W47" s="20"/>
+      <c r="X47" s="20"/>
+      <c r="Y47" s="20"/>
+      <c r="Z47" s="21"/>
     </row>
     <row r="48" ht="15.0" customHeight="1">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
-      <c r="P48" s="2"/>
-      <c r="Q48" s="2"/>
-      <c r="R48" s="2"/>
-      <c r="S48" s="2"/>
-      <c r="T48" s="2"/>
-      <c r="U48" s="2"/>
-      <c r="V48" s="2"/>
-      <c r="W48" s="2"/>
-      <c r="X48" s="2"/>
-      <c r="Y48" s="2"/>
-      <c r="Z48" s="2"/>
+      <c r="A48" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="B48" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="D48" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="E48" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="20"/>
+      <c r="K48" s="20"/>
+      <c r="L48" s="20"/>
+      <c r="M48" s="20"/>
+      <c r="N48" s="20"/>
+      <c r="O48" s="20"/>
+      <c r="P48" s="20"/>
+      <c r="Q48" s="20"/>
+      <c r="R48" s="20"/>
+      <c r="S48" s="20"/>
+      <c r="T48" s="20"/>
+      <c r="U48" s="20"/>
+      <c r="V48" s="20"/>
+      <c r="W48" s="20"/>
+      <c r="X48" s="20"/>
+      <c r="Y48" s="20"/>
+      <c r="Z48" s="21"/>
     </row>
     <row r="49" ht="15.0" customHeight="1">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
-      <c r="P49" s="2"/>
-      <c r="Q49" s="2"/>
-      <c r="R49" s="2"/>
-      <c r="S49" s="2"/>
-      <c r="T49" s="2"/>
-      <c r="U49" s="2"/>
-      <c r="V49" s="2"/>
-      <c r="W49" s="2"/>
-      <c r="X49" s="2"/>
-      <c r="Y49" s="2"/>
-      <c r="Z49" s="2"/>
+      <c r="A49" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="B49" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="E49" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="22"/>
+      <c r="M49" s="22"/>
+      <c r="N49" s="22"/>
+      <c r="O49" s="22"/>
+      <c r="P49" s="22"/>
+      <c r="Q49" s="22"/>
+      <c r="R49" s="22"/>
+      <c r="S49" s="22"/>
+      <c r="T49" s="22"/>
+      <c r="U49" s="22"/>
+      <c r="V49" s="22"/>
+      <c r="W49" s="22"/>
+      <c r="X49" s="22"/>
+      <c r="Y49" s="22"/>
+      <c r="Z49" s="21"/>
     </row>
     <row r="50" ht="15.0" customHeight="1">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
-      <c r="P50" s="2"/>
-      <c r="Q50" s="2"/>
-      <c r="R50" s="2"/>
-      <c r="S50" s="2"/>
-      <c r="T50" s="2"/>
-      <c r="U50" s="2"/>
-      <c r="V50" s="2"/>
-      <c r="W50" s="2"/>
-      <c r="X50" s="2"/>
-      <c r="Y50" s="2"/>
-      <c r="Z50" s="2"/>
+      <c r="A50" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="B50" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="D50" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="E50" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="22"/>
+      <c r="L50" s="22"/>
+      <c r="M50" s="22"/>
+      <c r="N50" s="22"/>
+      <c r="O50" s="22"/>
+      <c r="P50" s="22"/>
+      <c r="Q50" s="22"/>
+      <c r="R50" s="22"/>
+      <c r="S50" s="22"/>
+      <c r="T50" s="22"/>
+      <c r="U50" s="22"/>
+      <c r="V50" s="22"/>
+      <c r="W50" s="22"/>
+      <c r="X50" s="22"/>
+      <c r="Y50" s="22"/>
+      <c r="Z50" s="21"/>
     </row>
     <row r="51" ht="15.0" customHeight="1">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
-      <c r="P51" s="2"/>
-      <c r="Q51" s="2"/>
-      <c r="R51" s="2"/>
-      <c r="S51" s="2"/>
-      <c r="T51" s="2"/>
-      <c r="U51" s="2"/>
-      <c r="V51" s="2"/>
-      <c r="W51" s="2"/>
-      <c r="X51" s="2"/>
-      <c r="Y51" s="2"/>
-      <c r="Z51" s="2"/>
+      <c r="A51" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="B51" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="C51" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="D51" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="E51" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="F51" s="28"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="28"/>
+      <c r="J51" s="28"/>
+      <c r="K51" s="28"/>
+      <c r="L51" s="28"/>
+      <c r="M51" s="28"/>
+      <c r="N51" s="28"/>
+      <c r="O51" s="28"/>
+      <c r="P51" s="28"/>
+      <c r="Q51" s="28"/>
+      <c r="R51" s="28"/>
+      <c r="S51" s="28"/>
+      <c r="T51" s="28"/>
+      <c r="U51" s="28"/>
+      <c r="V51" s="28"/>
+      <c r="W51" s="28"/>
+      <c r="X51" s="28"/>
+      <c r="Y51" s="28"/>
+      <c r="Z51" s="30"/>
     </row>
     <row r="52" ht="15.0" customHeight="1">
       <c r="A52" s="2"/>
@@ -2704,7 +2962,7 @@
       <c r="Y53" s="2"/>
       <c r="Z53" s="2"/>
     </row>
-    <row r="54" ht="15.0" customHeight="1">
+    <row r="54">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -2732,7 +2990,7 @@
       <c r="Y54" s="2"/>
       <c r="Z54" s="2"/>
     </row>
-    <row r="55" ht="15.0" customHeight="1">
+    <row r="55">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -7660,7 +7918,7 @@
       <c r="Y230" s="2"/>
       <c r="Z230" s="2"/>
     </row>
-    <row r="231" ht="15.75" customHeight="1">
+    <row r="231" ht="15.0" customHeight="1">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -7688,7 +7946,7 @@
       <c r="Y231" s="2"/>
       <c r="Z231" s="2"/>
     </row>
-    <row r="232" ht="15.75" customHeight="1">
+    <row r="232" ht="15.0" customHeight="1">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -7716,7 +7974,7 @@
       <c r="Y232" s="2"/>
       <c r="Z232" s="2"/>
     </row>
-    <row r="233" ht="15.75" customHeight="1">
+    <row r="233" ht="15.0" customHeight="1">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -7744,7 +8002,7 @@
       <c r="Y233" s="2"/>
       <c r="Z233" s="2"/>
     </row>
-    <row r="234" ht="15.75" customHeight="1">
+    <row r="234" ht="15.0" customHeight="1">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -7772,7 +8030,7 @@
       <c r="Y234" s="2"/>
       <c r="Z234" s="2"/>
     </row>
-    <row r="235" ht="15.75" customHeight="1">
+    <row r="235" ht="15.0" customHeight="1">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -7800,7 +8058,7 @@
       <c r="Y235" s="2"/>
       <c r="Z235" s="2"/>
     </row>
-    <row r="236" ht="15.75" customHeight="1">
+    <row r="236" ht="15.0" customHeight="1">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -7828,7 +8086,7 @@
       <c r="Y236" s="2"/>
       <c r="Z236" s="2"/>
     </row>
-    <row r="237" ht="15.75" customHeight="1">
+    <row r="237" ht="15.0" customHeight="1">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -7856,7 +8114,7 @@
       <c r="Y237" s="2"/>
       <c r="Z237" s="2"/>
     </row>
-    <row r="238" ht="15.75" customHeight="1">
+    <row r="238" ht="15.0" customHeight="1">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -7884,7 +8142,7 @@
       <c r="Y238" s="2"/>
       <c r="Z238" s="2"/>
     </row>
-    <row r="239" ht="15.75" customHeight="1">
+    <row r="239" ht="15.0" customHeight="1">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -7912,7 +8170,7 @@
       <c r="Y239" s="2"/>
       <c r="Z239" s="2"/>
     </row>
-    <row r="240" ht="15.75" customHeight="1">
+    <row r="240" ht="15.0" customHeight="1">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -7940,7 +8198,7 @@
       <c r="Y240" s="2"/>
       <c r="Z240" s="2"/>
     </row>
-    <row r="241" ht="15.75" customHeight="1">
+    <row r="241" ht="15.0" customHeight="1">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -7968,7 +8226,7 @@
       <c r="Y241" s="2"/>
       <c r="Z241" s="2"/>
     </row>
-    <row r="242" ht="15.75" customHeight="1">
+    <row r="242" ht="15.0" customHeight="1">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -29304,6 +29562,342 @@
       <c r="Y1003" s="2"/>
       <c r="Z1003" s="2"/>
     </row>
+    <row r="1004" ht="15.75" customHeight="1">
+      <c r="A1004" s="2"/>
+      <c r="B1004" s="2"/>
+      <c r="C1004" s="2"/>
+      <c r="D1004" s="2"/>
+      <c r="E1004" s="2"/>
+      <c r="F1004" s="2"/>
+      <c r="G1004" s="2"/>
+      <c r="H1004" s="2"/>
+      <c r="I1004" s="2"/>
+      <c r="J1004" s="2"/>
+      <c r="K1004" s="2"/>
+      <c r="L1004" s="2"/>
+      <c r="M1004" s="2"/>
+      <c r="N1004" s="2"/>
+      <c r="O1004" s="2"/>
+      <c r="P1004" s="2"/>
+      <c r="Q1004" s="2"/>
+      <c r="R1004" s="2"/>
+      <c r="S1004" s="2"/>
+      <c r="T1004" s="2"/>
+      <c r="U1004" s="2"/>
+      <c r="V1004" s="2"/>
+      <c r="W1004" s="2"/>
+      <c r="X1004" s="2"/>
+      <c r="Y1004" s="2"/>
+      <c r="Z1004" s="2"/>
+    </row>
+    <row r="1005" ht="15.75" customHeight="1">
+      <c r="A1005" s="2"/>
+      <c r="B1005" s="2"/>
+      <c r="C1005" s="2"/>
+      <c r="D1005" s="2"/>
+      <c r="E1005" s="2"/>
+      <c r="F1005" s="2"/>
+      <c r="G1005" s="2"/>
+      <c r="H1005" s="2"/>
+      <c r="I1005" s="2"/>
+      <c r="J1005" s="2"/>
+      <c r="K1005" s="2"/>
+      <c r="L1005" s="2"/>
+      <c r="M1005" s="2"/>
+      <c r="N1005" s="2"/>
+      <c r="O1005" s="2"/>
+      <c r="P1005" s="2"/>
+      <c r="Q1005" s="2"/>
+      <c r="R1005" s="2"/>
+      <c r="S1005" s="2"/>
+      <c r="T1005" s="2"/>
+      <c r="U1005" s="2"/>
+      <c r="V1005" s="2"/>
+      <c r="W1005" s="2"/>
+      <c r="X1005" s="2"/>
+      <c r="Y1005" s="2"/>
+      <c r="Z1005" s="2"/>
+    </row>
+    <row r="1006" ht="15.75" customHeight="1">
+      <c r="A1006" s="2"/>
+      <c r="B1006" s="2"/>
+      <c r="C1006" s="2"/>
+      <c r="D1006" s="2"/>
+      <c r="E1006" s="2"/>
+      <c r="F1006" s="2"/>
+      <c r="G1006" s="2"/>
+      <c r="H1006" s="2"/>
+      <c r="I1006" s="2"/>
+      <c r="J1006" s="2"/>
+      <c r="K1006" s="2"/>
+      <c r="L1006" s="2"/>
+      <c r="M1006" s="2"/>
+      <c r="N1006" s="2"/>
+      <c r="O1006" s="2"/>
+      <c r="P1006" s="2"/>
+      <c r="Q1006" s="2"/>
+      <c r="R1006" s="2"/>
+      <c r="S1006" s="2"/>
+      <c r="T1006" s="2"/>
+      <c r="U1006" s="2"/>
+      <c r="V1006" s="2"/>
+      <c r="W1006" s="2"/>
+      <c r="X1006" s="2"/>
+      <c r="Y1006" s="2"/>
+      <c r="Z1006" s="2"/>
+    </row>
+    <row r="1007" ht="15.75" customHeight="1">
+      <c r="A1007" s="2"/>
+      <c r="B1007" s="2"/>
+      <c r="C1007" s="2"/>
+      <c r="D1007" s="2"/>
+      <c r="E1007" s="2"/>
+      <c r="F1007" s="2"/>
+      <c r="G1007" s="2"/>
+      <c r="H1007" s="2"/>
+      <c r="I1007" s="2"/>
+      <c r="J1007" s="2"/>
+      <c r="K1007" s="2"/>
+      <c r="L1007" s="2"/>
+      <c r="M1007" s="2"/>
+      <c r="N1007" s="2"/>
+      <c r="O1007" s="2"/>
+      <c r="P1007" s="2"/>
+      <c r="Q1007" s="2"/>
+      <c r="R1007" s="2"/>
+      <c r="S1007" s="2"/>
+      <c r="T1007" s="2"/>
+      <c r="U1007" s="2"/>
+      <c r="V1007" s="2"/>
+      <c r="W1007" s="2"/>
+      <c r="X1007" s="2"/>
+      <c r="Y1007" s="2"/>
+      <c r="Z1007" s="2"/>
+    </row>
+    <row r="1008" ht="15.75" customHeight="1">
+      <c r="A1008" s="2"/>
+      <c r="B1008" s="2"/>
+      <c r="C1008" s="2"/>
+      <c r="D1008" s="2"/>
+      <c r="E1008" s="2"/>
+      <c r="F1008" s="2"/>
+      <c r="G1008" s="2"/>
+      <c r="H1008" s="2"/>
+      <c r="I1008" s="2"/>
+      <c r="J1008" s="2"/>
+      <c r="K1008" s="2"/>
+      <c r="L1008" s="2"/>
+      <c r="M1008" s="2"/>
+      <c r="N1008" s="2"/>
+      <c r="O1008" s="2"/>
+      <c r="P1008" s="2"/>
+      <c r="Q1008" s="2"/>
+      <c r="R1008" s="2"/>
+      <c r="S1008" s="2"/>
+      <c r="T1008" s="2"/>
+      <c r="U1008" s="2"/>
+      <c r="V1008" s="2"/>
+      <c r="W1008" s="2"/>
+      <c r="X1008" s="2"/>
+      <c r="Y1008" s="2"/>
+      <c r="Z1008" s="2"/>
+    </row>
+    <row r="1009" ht="15.75" customHeight="1">
+      <c r="A1009" s="2"/>
+      <c r="B1009" s="2"/>
+      <c r="C1009" s="2"/>
+      <c r="D1009" s="2"/>
+      <c r="E1009" s="2"/>
+      <c r="F1009" s="2"/>
+      <c r="G1009" s="2"/>
+      <c r="H1009" s="2"/>
+      <c r="I1009" s="2"/>
+      <c r="J1009" s="2"/>
+      <c r="K1009" s="2"/>
+      <c r="L1009" s="2"/>
+      <c r="M1009" s="2"/>
+      <c r="N1009" s="2"/>
+      <c r="O1009" s="2"/>
+      <c r="P1009" s="2"/>
+      <c r="Q1009" s="2"/>
+      <c r="R1009" s="2"/>
+      <c r="S1009" s="2"/>
+      <c r="T1009" s="2"/>
+      <c r="U1009" s="2"/>
+      <c r="V1009" s="2"/>
+      <c r="W1009" s="2"/>
+      <c r="X1009" s="2"/>
+      <c r="Y1009" s="2"/>
+      <c r="Z1009" s="2"/>
+    </row>
+    <row r="1010" ht="15.75" customHeight="1">
+      <c r="A1010" s="2"/>
+      <c r="B1010" s="2"/>
+      <c r="C1010" s="2"/>
+      <c r="D1010" s="2"/>
+      <c r="E1010" s="2"/>
+      <c r="F1010" s="2"/>
+      <c r="G1010" s="2"/>
+      <c r="H1010" s="2"/>
+      <c r="I1010" s="2"/>
+      <c r="J1010" s="2"/>
+      <c r="K1010" s="2"/>
+      <c r="L1010" s="2"/>
+      <c r="M1010" s="2"/>
+      <c r="N1010" s="2"/>
+      <c r="O1010" s="2"/>
+      <c r="P1010" s="2"/>
+      <c r="Q1010" s="2"/>
+      <c r="R1010" s="2"/>
+      <c r="S1010" s="2"/>
+      <c r="T1010" s="2"/>
+      <c r="U1010" s="2"/>
+      <c r="V1010" s="2"/>
+      <c r="W1010" s="2"/>
+      <c r="X1010" s="2"/>
+      <c r="Y1010" s="2"/>
+      <c r="Z1010" s="2"/>
+    </row>
+    <row r="1011" ht="15.75" customHeight="1">
+      <c r="A1011" s="2"/>
+      <c r="B1011" s="2"/>
+      <c r="C1011" s="2"/>
+      <c r="D1011" s="2"/>
+      <c r="E1011" s="2"/>
+      <c r="F1011" s="2"/>
+      <c r="G1011" s="2"/>
+      <c r="H1011" s="2"/>
+      <c r="I1011" s="2"/>
+      <c r="J1011" s="2"/>
+      <c r="K1011" s="2"/>
+      <c r="L1011" s="2"/>
+      <c r="M1011" s="2"/>
+      <c r="N1011" s="2"/>
+      <c r="O1011" s="2"/>
+      <c r="P1011" s="2"/>
+      <c r="Q1011" s="2"/>
+      <c r="R1011" s="2"/>
+      <c r="S1011" s="2"/>
+      <c r="T1011" s="2"/>
+      <c r="U1011" s="2"/>
+      <c r="V1011" s="2"/>
+      <c r="W1011" s="2"/>
+      <c r="X1011" s="2"/>
+      <c r="Y1011" s="2"/>
+      <c r="Z1011" s="2"/>
+    </row>
+    <row r="1012" ht="15.75" customHeight="1">
+      <c r="A1012" s="2"/>
+      <c r="B1012" s="2"/>
+      <c r="C1012" s="2"/>
+      <c r="D1012" s="2"/>
+      <c r="E1012" s="2"/>
+      <c r="F1012" s="2"/>
+      <c r="G1012" s="2"/>
+      <c r="H1012" s="2"/>
+      <c r="I1012" s="2"/>
+      <c r="J1012" s="2"/>
+      <c r="K1012" s="2"/>
+      <c r="L1012" s="2"/>
+      <c r="M1012" s="2"/>
+      <c r="N1012" s="2"/>
+      <c r="O1012" s="2"/>
+      <c r="P1012" s="2"/>
+      <c r="Q1012" s="2"/>
+      <c r="R1012" s="2"/>
+      <c r="S1012" s="2"/>
+      <c r="T1012" s="2"/>
+      <c r="U1012" s="2"/>
+      <c r="V1012" s="2"/>
+      <c r="W1012" s="2"/>
+      <c r="X1012" s="2"/>
+      <c r="Y1012" s="2"/>
+      <c r="Z1012" s="2"/>
+    </row>
+    <row r="1013" ht="15.75" customHeight="1">
+      <c r="A1013" s="2"/>
+      <c r="B1013" s="2"/>
+      <c r="C1013" s="2"/>
+      <c r="D1013" s="2"/>
+      <c r="E1013" s="2"/>
+      <c r="F1013" s="2"/>
+      <c r="G1013" s="2"/>
+      <c r="H1013" s="2"/>
+      <c r="I1013" s="2"/>
+      <c r="J1013" s="2"/>
+      <c r="K1013" s="2"/>
+      <c r="L1013" s="2"/>
+      <c r="M1013" s="2"/>
+      <c r="N1013" s="2"/>
+      <c r="O1013" s="2"/>
+      <c r="P1013" s="2"/>
+      <c r="Q1013" s="2"/>
+      <c r="R1013" s="2"/>
+      <c r="S1013" s="2"/>
+      <c r="T1013" s="2"/>
+      <c r="U1013" s="2"/>
+      <c r="V1013" s="2"/>
+      <c r="W1013" s="2"/>
+      <c r="X1013" s="2"/>
+      <c r="Y1013" s="2"/>
+      <c r="Z1013" s="2"/>
+    </row>
+    <row r="1014" ht="15.75" customHeight="1">
+      <c r="A1014" s="2"/>
+      <c r="B1014" s="2"/>
+      <c r="C1014" s="2"/>
+      <c r="D1014" s="2"/>
+      <c r="E1014" s="2"/>
+      <c r="F1014" s="2"/>
+      <c r="G1014" s="2"/>
+      <c r="H1014" s="2"/>
+      <c r="I1014" s="2"/>
+      <c r="J1014" s="2"/>
+      <c r="K1014" s="2"/>
+      <c r="L1014" s="2"/>
+      <c r="M1014" s="2"/>
+      <c r="N1014" s="2"/>
+      <c r="O1014" s="2"/>
+      <c r="P1014" s="2"/>
+      <c r="Q1014" s="2"/>
+      <c r="R1014" s="2"/>
+      <c r="S1014" s="2"/>
+      <c r="T1014" s="2"/>
+      <c r="U1014" s="2"/>
+      <c r="V1014" s="2"/>
+      <c r="W1014" s="2"/>
+      <c r="X1014" s="2"/>
+      <c r="Y1014" s="2"/>
+      <c r="Z1014" s="2"/>
+    </row>
+    <row r="1015" ht="15.75" customHeight="1">
+      <c r="A1015" s="2"/>
+      <c r="B1015" s="2"/>
+      <c r="C1015" s="2"/>
+      <c r="D1015" s="2"/>
+      <c r="E1015" s="2"/>
+      <c r="F1015" s="2"/>
+      <c r="G1015" s="2"/>
+      <c r="H1015" s="2"/>
+      <c r="I1015" s="2"/>
+      <c r="J1015" s="2"/>
+      <c r="K1015" s="2"/>
+      <c r="L1015" s="2"/>
+      <c r="M1015" s="2"/>
+      <c r="N1015" s="2"/>
+      <c r="O1015" s="2"/>
+      <c r="P1015" s="2"/>
+      <c r="Q1015" s="2"/>
+      <c r="R1015" s="2"/>
+      <c r="S1015" s="2"/>
+      <c r="T1015" s="2"/>
+      <c r="U1015" s="2"/>
+      <c r="V1015" s="2"/>
+      <c r="W1015" s="2"/>
+      <c r="X1015" s="2"/>
+      <c r="Y1015" s="2"/>
+      <c r="Z1015" s="2"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Engine/Unity/3.x/Learning_01/Example/Packages/.module.unitycommon@1.7.0/Templates/Tables/StringInfo/T_StrTable.xlsx
+++ b/Engine/Unity/3.x/Learning_01/Example/Packages/.module.unitycommon@1.7.0/Templates/Tables/StringInfo/T_StrTable.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="271">
   <si>
     <t>ID</t>
   </si>
@@ -466,6 +466,24 @@
     <t>Leave</t>
   </si>
   <si>
+    <t>COMMON_SYNC_TEXT</t>
+  </si>
+  <si>
+    <t>공용 동기화 텍스트</t>
+  </si>
+  <si>
+    <t>동기화</t>
+  </si>
+  <si>
+    <t>Sync</t>
+  </si>
+  <si>
+    <t>COMMON_NOTICE_TEXT</t>
+  </si>
+  <si>
+    <t>공용 알림 텍스트</t>
+  </si>
+  <si>
     <t>COMMON_WATCH_ADS_TEXT</t>
   </si>
   <si>
@@ -585,12 +603,234 @@
   <si>
     <t>Chapters : {0}</t>
   </si>
+  <si>
+    <t>STORE_P_TITLE</t>
+  </si>
+  <si>
+    <t>상점 팝업 타이틀</t>
+  </si>
+  <si>
+    <t>상점</t>
+  </si>
+  <si>
+    <t>Store</t>
+  </si>
+  <si>
+    <t>STORE_P_RESTORE_BTN_TEXT</t>
+  </si>
+  <si>
+    <t>상점 팝업 복원 버튼 텍스트</t>
+  </si>
+  <si>
+    <t>결제 복원</t>
+  </si>
+  <si>
+    <t>Restore Payment</t>
+  </si>
+  <si>
+    <t>SETTINGS_P_TITLE</t>
+  </si>
+  <si>
+    <t>설정 팝업 타이틀</t>
+  </si>
+  <si>
+    <t>설정</t>
+  </si>
+  <si>
+    <t>Settings</t>
+  </si>
+  <si>
+    <t>SETTINGS_P_BG_SND_BTN_TEXT</t>
+  </si>
+  <si>
+    <t>설정 팝업 배경음 버튼 텍스트</t>
+  </si>
+  <si>
+    <t>배경음</t>
+  </si>
+  <si>
+    <t>BGM</t>
+  </si>
+  <si>
+    <t>SETTINGS_P_FX_SNDS_BTN_TEXT</t>
+  </si>
+  <si>
+    <t>설정 팝업 효과음 버튼 텍스트</t>
+  </si>
+  <si>
+    <t>효과음</t>
+  </si>
+  <si>
+    <t>SFX</t>
+  </si>
+  <si>
+    <t>SETTINGS_P_NOTI_BTN_TEXT</t>
+  </si>
+  <si>
+    <t>설정 팝업 알림 버튼 텍스트</t>
+  </si>
+  <si>
+    <t>SETTINGS_P_REVIEW_BTN_TEXT</t>
+  </si>
+  <si>
+    <t>설정 팝업 평가 버튼 텍스트</t>
+  </si>
+  <si>
+    <t>평가</t>
+  </si>
+  <si>
+    <t>Review</t>
+  </si>
+  <si>
+    <t>SETTINGS_P_SUPPORTS_BTN_TEXT</t>
+  </si>
+  <si>
+    <t>설정 팝업 지원 버튼 텍스트</t>
+  </si>
+  <si>
+    <t>문의</t>
+  </si>
+  <si>
+    <t>Supports</t>
+  </si>
+  <si>
+    <t>SYNC_P_TITLE</t>
+  </si>
+  <si>
+    <t>동기화 팝업 타이틀</t>
+  </si>
+  <si>
+    <t>SYNC_P_LOGIN_BTN_TEXT</t>
+  </si>
+  <si>
+    <t>동기화 팝업 로그인 버튼 텍스트</t>
+  </si>
+  <si>
+    <t>로그인</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>SYNC_P_LOGOUT_BTN_TEXT</t>
+  </si>
+  <si>
+    <t>동기화 팝업 로그아웃 버튼 텍스트</t>
+  </si>
+  <si>
+    <t>로그아웃</t>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t>SYNC_P_SAVE_BTN_TEXT</t>
+  </si>
+  <si>
+    <t>동기화 팝업 저장 버튼 텍스트</t>
+  </si>
+  <si>
+    <t>저장하기</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>SYNC_P_LOAD_BTN_TEXT</t>
+  </si>
+  <si>
+    <t>동기화 팝업 로드 버튼 텍스트</t>
+  </si>
+  <si>
+    <t>불러오기</t>
+  </si>
+  <si>
+    <t>Load</t>
+  </si>
+  <si>
+    <t>DAILY_MP_TITLE</t>
+  </si>
+  <si>
+    <t>일일 미션 팝업 타이틀</t>
+  </si>
+  <si>
+    <t>일일 미션</t>
+  </si>
+  <si>
+    <t>Daily Mission</t>
+  </si>
+  <si>
+    <t>FREE_RP_TITLE</t>
+  </si>
+  <si>
+    <t>무료 보상 팝업 타이틀</t>
+  </si>
+  <si>
+    <t>무료 보상</t>
+  </si>
+  <si>
+    <t>Free Reward</t>
+  </si>
+  <si>
+    <t>FREE_RP_ADS_BTN_TEXT</t>
+  </si>
+  <si>
+    <t>무료 보상 팝업 광고 버튼 텍스트</t>
+  </si>
+  <si>
+    <t>DAILY_RP_TITLE</t>
+  </si>
+  <si>
+    <t>일일 보상 팝업 타이틀</t>
+  </si>
+  <si>
+    <t>일일 보상</t>
+  </si>
+  <si>
+    <t>Daily Reward</t>
+  </si>
+  <si>
+    <t>DAILY_RP_ADS_BTN_TEXT</t>
+  </si>
+  <si>
+    <t>일일 보상 팝업 광고 버튼 텍스트</t>
+  </si>
+  <si>
+    <t>DAILY_RP_ACQUIRE_BTN_TEXT</t>
+  </si>
+  <si>
+    <t>일일 보상 팝업 획득 버튼 텍스트</t>
+  </si>
+  <si>
+    <t>SALE_CP_TITLE</t>
+  </si>
+  <si>
+    <t>판매 코인 팝업 타이틀</t>
+  </si>
+  <si>
+    <t>판매 코인</t>
+  </si>
+  <si>
+    <t>Sale Coins</t>
+  </si>
+  <si>
+    <t>SALE_CP_OK_BTN_TEXT</t>
+  </si>
+  <si>
+    <t>판매 코인 팝업 확인 버튼 텍스트</t>
+  </si>
+  <si>
+    <t>REWARD_AP_ACQUIRE_BTN_TEXT</t>
+  </si>
+  <si>
+    <t>보상 획득 팝업 획득 버튼 텍스트</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -601,8 +841,15 @@
       <name val="Arial"/>
     </font>
     <font/>
+    <font>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -625,6 +872,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF4CCCC"/>
         <bgColor rgb="FFF4CCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE5CD"/>
+        <bgColor rgb="FFFCE5CD"/>
       </patternFill>
     </fill>
   </fills>
@@ -686,7 +939,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="52">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -736,14 +989,63 @@
     <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="6" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="7" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="8" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="5" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="5" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="5" fillId="5" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="5" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="6" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="7" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="7" fillId="5" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="5" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -2489,172 +2791,172 @@
       <c r="Z40" s="21"/>
     </row>
     <row r="41" ht="15.0" customHeight="1">
-      <c r="A41" s="18" t="s">
+      <c r="A41" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="B41" s="19">
+      <c r="B41" s="26">
         <v>0.0</v>
       </c>
-      <c r="C41" s="19" t="s">
+      <c r="C41" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="D41" s="19" t="s">
+      <c r="D41" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="E41" s="19" t="s">
+      <c r="E41" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="20"/>
-      <c r="N41" s="20"/>
-      <c r="O41" s="20"/>
-      <c r="P41" s="20"/>
-      <c r="Q41" s="20"/>
-      <c r="R41" s="20"/>
-      <c r="S41" s="20"/>
-      <c r="T41" s="20"/>
-      <c r="U41" s="20"/>
-      <c r="V41" s="20"/>
-      <c r="W41" s="20"/>
-      <c r="X41" s="20"/>
-      <c r="Y41" s="20"/>
-      <c r="Z41" s="21"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="27"/>
+      <c r="M41" s="27"/>
+      <c r="N41" s="27"/>
+      <c r="O41" s="27"/>
+      <c r="P41" s="27"/>
+      <c r="Q41" s="27"/>
+      <c r="R41" s="27"/>
+      <c r="S41" s="27"/>
+      <c r="T41" s="27"/>
+      <c r="U41" s="27"/>
+      <c r="V41" s="27"/>
+      <c r="W41" s="27"/>
+      <c r="X41" s="27"/>
+      <c r="Y41" s="27"/>
+      <c r="Z41" s="27"/>
     </row>
     <row r="42" ht="15.0" customHeight="1">
-      <c r="A42" s="18" t="s">
+      <c r="A42" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="B42" s="19">
+      <c r="B42" s="29">
         <v>0.0</v>
       </c>
-      <c r="C42" s="19" t="s">
+      <c r="C42" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="D42" s="19" t="s">
+      <c r="D42" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="E42" s="26" t="s">
+      <c r="E42" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="20"/>
-      <c r="M42" s="20"/>
-      <c r="N42" s="20"/>
-      <c r="O42" s="20"/>
-      <c r="P42" s="20"/>
-      <c r="Q42" s="20"/>
-      <c r="R42" s="20"/>
-      <c r="S42" s="20"/>
-      <c r="T42" s="20"/>
-      <c r="U42" s="20"/>
-      <c r="V42" s="20"/>
-      <c r="W42" s="20"/>
-      <c r="X42" s="20"/>
-      <c r="Y42" s="20"/>
-      <c r="Z42" s="21"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="30"/>
+      <c r="K42" s="30"/>
+      <c r="L42" s="30"/>
+      <c r="M42" s="30"/>
+      <c r="N42" s="30"/>
+      <c r="O42" s="30"/>
+      <c r="P42" s="30"/>
+      <c r="Q42" s="30"/>
+      <c r="R42" s="30"/>
+      <c r="S42" s="30"/>
+      <c r="T42" s="30"/>
+      <c r="U42" s="30"/>
+      <c r="V42" s="30"/>
+      <c r="W42" s="30"/>
+      <c r="X42" s="30"/>
+      <c r="Y42" s="30"/>
+      <c r="Z42" s="31"/>
     </row>
     <row r="43" ht="15.0" customHeight="1">
-      <c r="A43" s="18" t="s">
+      <c r="A43" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="B43" s="19">
+      <c r="B43" s="26">
         <v>0.0</v>
       </c>
-      <c r="C43" s="19" t="s">
+      <c r="C43" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="D43" s="19" t="s">
+      <c r="D43" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="27"/>
+      <c r="K43" s="27"/>
+      <c r="L43" s="27"/>
+      <c r="M43" s="27"/>
+      <c r="N43" s="27"/>
+      <c r="O43" s="27"/>
+      <c r="P43" s="27"/>
+      <c r="Q43" s="27"/>
+      <c r="R43" s="27"/>
+      <c r="S43" s="27"/>
+      <c r="T43" s="27"/>
+      <c r="U43" s="27"/>
+      <c r="V43" s="27"/>
+      <c r="W43" s="27"/>
+      <c r="X43" s="27"/>
+      <c r="Y43" s="27"/>
+      <c r="Z43" s="27"/>
+    </row>
+    <row r="44" ht="15.0" customHeight="1">
+      <c r="A44" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="E43" s="19" t="s">
+      <c r="B44" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="C44" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="20"/>
-      <c r="K43" s="20"/>
-      <c r="L43" s="20"/>
-      <c r="M43" s="20"/>
-      <c r="N43" s="20"/>
-      <c r="O43" s="20"/>
-      <c r="P43" s="20"/>
-      <c r="Q43" s="20"/>
-      <c r="R43" s="20"/>
-      <c r="S43" s="20"/>
-      <c r="T43" s="20"/>
-      <c r="U43" s="20"/>
-      <c r="V43" s="20"/>
-      <c r="W43" s="20"/>
-      <c r="X43" s="20"/>
-      <c r="Y43" s="20"/>
-      <c r="Z43" s="21"/>
-    </row>
-    <row r="44" ht="15.0" customHeight="1">
-      <c r="A44" s="18" t="s">
+      <c r="D44" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="B44" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="C44" s="19" t="s">
+      <c r="E44" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="D44" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="E44" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="20"/>
-      <c r="J44" s="20"/>
-      <c r="K44" s="20"/>
-      <c r="L44" s="20"/>
-      <c r="M44" s="20"/>
-      <c r="N44" s="20"/>
-      <c r="O44" s="20"/>
-      <c r="P44" s="20"/>
-      <c r="Q44" s="20"/>
-      <c r="R44" s="20"/>
-      <c r="S44" s="20"/>
-      <c r="T44" s="20"/>
-      <c r="U44" s="20"/>
-      <c r="V44" s="20"/>
-      <c r="W44" s="20"/>
-      <c r="X44" s="20"/>
-      <c r="Y44" s="20"/>
-      <c r="Z44" s="21"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="27"/>
+      <c r="L44" s="27"/>
+      <c r="M44" s="27"/>
+      <c r="N44" s="27"/>
+      <c r="O44" s="27"/>
+      <c r="P44" s="27"/>
+      <c r="Q44" s="27"/>
+      <c r="R44" s="27"/>
+      <c r="S44" s="27"/>
+      <c r="T44" s="27"/>
+      <c r="U44" s="27"/>
+      <c r="V44" s="27"/>
+      <c r="W44" s="27"/>
+      <c r="X44" s="27"/>
+      <c r="Y44" s="27"/>
+      <c r="Z44" s="27"/>
     </row>
     <row r="45" ht="15.0" customHeight="1">
       <c r="A45" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B45" s="19">
         <v>0.0</v>
       </c>
       <c r="C45" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="E45" s="19" t="s">
         <v>164</v>
-      </c>
-      <c r="D45" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="E45" s="19" t="s">
-        <v>166</v>
       </c>
       <c r="F45" s="20"/>
       <c r="G45" s="20"/>
@@ -2680,19 +2982,19 @@
     </row>
     <row r="46" ht="15.0" customHeight="1">
       <c r="A46" s="18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B46" s="19">
         <v>0.0</v>
       </c>
       <c r="C46" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="E46" s="19" t="s">
         <v>168</v>
-      </c>
-      <c r="D46" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="E46" s="19" t="s">
-        <v>170</v>
       </c>
       <c r="F46" s="20"/>
       <c r="G46" s="20"/>
@@ -2718,19 +3020,19 @@
     </row>
     <row r="47" ht="15.0" customHeight="1">
       <c r="A47" s="18" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B47" s="19">
         <v>0.0</v>
       </c>
       <c r="C47" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="E47" s="19" t="s">
         <v>172</v>
-      </c>
-      <c r="D47" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="E47" s="19" t="s">
-        <v>174</v>
       </c>
       <c r="F47" s="20"/>
       <c r="G47" s="20"/>
@@ -2756,19 +3058,19 @@
     </row>
     <row r="48" ht="15.0" customHeight="1">
       <c r="A48" s="18" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B48" s="19">
         <v>0.0</v>
       </c>
       <c r="C48" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="D48" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="E48" s="19" t="s">
         <v>176</v>
-      </c>
-      <c r="D48" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="E48" s="19" t="s">
-        <v>178</v>
       </c>
       <c r="F48" s="20"/>
       <c r="G48" s="20"/>
@@ -2794,789 +3096,1029 @@
     </row>
     <row r="49" ht="15.0" customHeight="1">
       <c r="A49" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="B49" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="D49" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="B49" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="C49" s="19" t="s">
+      <c r="E49" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="D49" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="E49" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="22"/>
-      <c r="I49" s="22"/>
-      <c r="J49" s="22"/>
-      <c r="K49" s="22"/>
-      <c r="L49" s="22"/>
-      <c r="M49" s="22"/>
-      <c r="N49" s="22"/>
-      <c r="O49" s="22"/>
-      <c r="P49" s="22"/>
-      <c r="Q49" s="22"/>
-      <c r="R49" s="22"/>
-      <c r="S49" s="22"/>
-      <c r="T49" s="22"/>
-      <c r="U49" s="22"/>
-      <c r="V49" s="22"/>
-      <c r="W49" s="22"/>
-      <c r="X49" s="22"/>
-      <c r="Y49" s="22"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="20"/>
+      <c r="K49" s="20"/>
+      <c r="L49" s="20"/>
+      <c r="M49" s="20"/>
+      <c r="N49" s="20"/>
+      <c r="O49" s="20"/>
+      <c r="P49" s="20"/>
+      <c r="Q49" s="20"/>
+      <c r="R49" s="20"/>
+      <c r="S49" s="20"/>
+      <c r="T49" s="20"/>
+      <c r="U49" s="20"/>
+      <c r="V49" s="20"/>
+      <c r="W49" s="20"/>
+      <c r="X49" s="20"/>
+      <c r="Y49" s="20"/>
       <c r="Z49" s="21"/>
     </row>
     <row r="50" ht="15.0" customHeight="1">
       <c r="A50" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="B50" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="D50" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="B50" s="22">
+      <c r="E50" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="20"/>
+      <c r="K50" s="20"/>
+      <c r="L50" s="20"/>
+      <c r="M50" s="20"/>
+      <c r="N50" s="20"/>
+      <c r="O50" s="20"/>
+      <c r="P50" s="20"/>
+      <c r="Q50" s="20"/>
+      <c r="R50" s="20"/>
+      <c r="S50" s="20"/>
+      <c r="T50" s="20"/>
+      <c r="U50" s="20"/>
+      <c r="V50" s="20"/>
+      <c r="W50" s="20"/>
+      <c r="X50" s="20"/>
+      <c r="Y50" s="20"/>
+      <c r="Z50" s="21"/>
+    </row>
+    <row r="51" ht="15.0" customHeight="1">
+      <c r="A51" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="B51" s="22">
         <v>0.0</v>
       </c>
-      <c r="C50" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="D50" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="E50" s="19" t="s">
+      <c r="C51" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="22"/>
-      <c r="I50" s="22"/>
-      <c r="J50" s="22"/>
-      <c r="K50" s="22"/>
-      <c r="L50" s="22"/>
-      <c r="M50" s="22"/>
-      <c r="N50" s="22"/>
-      <c r="O50" s="22"/>
-      <c r="P50" s="22"/>
-      <c r="Q50" s="22"/>
-      <c r="R50" s="22"/>
-      <c r="S50" s="22"/>
-      <c r="T50" s="22"/>
-      <c r="U50" s="22"/>
-      <c r="V50" s="22"/>
-      <c r="W50" s="22"/>
-      <c r="X50" s="22"/>
-      <c r="Y50" s="22"/>
-      <c r="Z50" s="21"/>
-    </row>
-    <row r="51" ht="15.0" customHeight="1">
-      <c r="A51" s="27" t="s">
+      <c r="D51" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="B51" s="28">
+      <c r="E51" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="22"/>
+      <c r="L51" s="22"/>
+      <c r="M51" s="22"/>
+      <c r="N51" s="22"/>
+      <c r="O51" s="22"/>
+      <c r="P51" s="22"/>
+      <c r="Q51" s="22"/>
+      <c r="R51" s="22"/>
+      <c r="S51" s="22"/>
+      <c r="T51" s="22"/>
+      <c r="U51" s="22"/>
+      <c r="V51" s="22"/>
+      <c r="W51" s="22"/>
+      <c r="X51" s="22"/>
+      <c r="Y51" s="22"/>
+      <c r="Z51" s="21"/>
+    </row>
+    <row r="52" ht="15.0" customHeight="1">
+      <c r="A52" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="B52" s="22">
         <v>0.0</v>
       </c>
-      <c r="C51" s="29" t="s">
-        <v>188</v>
-      </c>
-      <c r="D51" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="E51" s="29" t="s">
+      <c r="C52" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="F51" s="28"/>
-      <c r="G51" s="28"/>
-      <c r="H51" s="28"/>
-      <c r="I51" s="28"/>
-      <c r="J51" s="28"/>
-      <c r="K51" s="28"/>
-      <c r="L51" s="28"/>
-      <c r="M51" s="28"/>
-      <c r="N51" s="28"/>
-      <c r="O51" s="28"/>
-      <c r="P51" s="28"/>
-      <c r="Q51" s="28"/>
-      <c r="R51" s="28"/>
-      <c r="S51" s="28"/>
-      <c r="T51" s="28"/>
-      <c r="U51" s="28"/>
-      <c r="V51" s="28"/>
-      <c r="W51" s="28"/>
-      <c r="X51" s="28"/>
-      <c r="Y51" s="28"/>
-      <c r="Z51" s="30"/>
-    </row>
-    <row r="52" ht="15.0" customHeight="1">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
-      <c r="P52" s="2"/>
-      <c r="Q52" s="2"/>
-      <c r="R52" s="2"/>
-      <c r="S52" s="2"/>
-      <c r="T52" s="2"/>
-      <c r="U52" s="2"/>
-      <c r="V52" s="2"/>
-      <c r="W52" s="2"/>
-      <c r="X52" s="2"/>
-      <c r="Y52" s="2"/>
-      <c r="Z52" s="2"/>
+      <c r="D52" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="E52" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="22"/>
+      <c r="L52" s="22"/>
+      <c r="M52" s="22"/>
+      <c r="N52" s="22"/>
+      <c r="O52" s="22"/>
+      <c r="P52" s="22"/>
+      <c r="Q52" s="22"/>
+      <c r="R52" s="22"/>
+      <c r="S52" s="22"/>
+      <c r="T52" s="22"/>
+      <c r="U52" s="22"/>
+      <c r="V52" s="22"/>
+      <c r="W52" s="22"/>
+      <c r="X52" s="22"/>
+      <c r="Y52" s="22"/>
+      <c r="Z52" s="21"/>
     </row>
     <row r="53" ht="15.0" customHeight="1">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-      <c r="P53" s="2"/>
-      <c r="Q53" s="2"/>
-      <c r="R53" s="2"/>
-      <c r="S53" s="2"/>
-      <c r="T53" s="2"/>
-      <c r="U53" s="2"/>
-      <c r="V53" s="2"/>
-      <c r="W53" s="2"/>
-      <c r="X53" s="2"/>
-      <c r="Y53" s="2"/>
-      <c r="Z53" s="2"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
-      <c r="P54" s="2"/>
-      <c r="Q54" s="2"/>
-      <c r="R54" s="2"/>
-      <c r="S54" s="2"/>
-      <c r="T54" s="2"/>
-      <c r="U54" s="2"/>
-      <c r="V54" s="2"/>
-      <c r="W54" s="2"/>
-      <c r="X54" s="2"/>
-      <c r="Y54" s="2"/>
-      <c r="Z54" s="2"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
-      <c r="P55" s="2"/>
-      <c r="Q55" s="2"/>
-      <c r="R55" s="2"/>
-      <c r="S55" s="2"/>
-      <c r="T55" s="2"/>
-      <c r="U55" s="2"/>
-      <c r="V55" s="2"/>
-      <c r="W55" s="2"/>
-      <c r="X55" s="2"/>
-      <c r="Y55" s="2"/>
-      <c r="Z55" s="2"/>
+      <c r="A53" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="B53" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="D53" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="E53" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="F53" s="22"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="22"/>
+      <c r="I53" s="22"/>
+      <c r="J53" s="22"/>
+      <c r="K53" s="22"/>
+      <c r="L53" s="22"/>
+      <c r="M53" s="22"/>
+      <c r="N53" s="22"/>
+      <c r="O53" s="22"/>
+      <c r="P53" s="22"/>
+      <c r="Q53" s="22"/>
+      <c r="R53" s="22"/>
+      <c r="S53" s="22"/>
+      <c r="T53" s="22"/>
+      <c r="U53" s="22"/>
+      <c r="V53" s="22"/>
+      <c r="W53" s="22"/>
+      <c r="X53" s="22"/>
+      <c r="Y53" s="22"/>
+      <c r="Z53" s="21"/>
+    </row>
+    <row r="54" ht="15.0" customHeight="1">
+      <c r="A54" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="B54" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="C54" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="D54" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="E54" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="F54" s="34"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="34"/>
+      <c r="I54" s="34"/>
+      <c r="J54" s="34"/>
+      <c r="K54" s="34"/>
+      <c r="L54" s="34"/>
+      <c r="M54" s="34"/>
+      <c r="N54" s="34"/>
+      <c r="O54" s="34"/>
+      <c r="P54" s="34"/>
+      <c r="Q54" s="34"/>
+      <c r="R54" s="34"/>
+      <c r="S54" s="34"/>
+      <c r="T54" s="34"/>
+      <c r="U54" s="34"/>
+      <c r="V54" s="34"/>
+      <c r="W54" s="34"/>
+      <c r="X54" s="34"/>
+      <c r="Y54" s="34"/>
+      <c r="Z54" s="35"/>
+    </row>
+    <row r="55" ht="15.0" customHeight="1">
+      <c r="A55" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="B55" s="37">
+        <v>0.0</v>
+      </c>
+      <c r="C55" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="D55" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="E55" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="F55" s="38"/>
+      <c r="G55" s="38"/>
+      <c r="H55" s="38"/>
+      <c r="I55" s="38"/>
+      <c r="J55" s="38"/>
+      <c r="K55" s="38"/>
+      <c r="L55" s="38"/>
+      <c r="M55" s="38"/>
+      <c r="N55" s="38"/>
+      <c r="O55" s="38"/>
+      <c r="P55" s="38"/>
+      <c r="Q55" s="38"/>
+      <c r="R55" s="38"/>
+      <c r="S55" s="38"/>
+      <c r="T55" s="38"/>
+      <c r="U55" s="38"/>
+      <c r="V55" s="38"/>
+      <c r="W55" s="38"/>
+      <c r="X55" s="38"/>
+      <c r="Y55" s="38"/>
+      <c r="Z55" s="39"/>
     </row>
     <row r="56" ht="15.0" customHeight="1">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
-      <c r="P56" s="2"/>
-      <c r="Q56" s="2"/>
-      <c r="R56" s="2"/>
-      <c r="S56" s="2"/>
-      <c r="T56" s="2"/>
-      <c r="U56" s="2"/>
-      <c r="V56" s="2"/>
-      <c r="W56" s="2"/>
-      <c r="X56" s="2"/>
-      <c r="Y56" s="2"/>
-      <c r="Z56" s="2"/>
+      <c r="A56" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="B56" s="37">
+        <v>0.0</v>
+      </c>
+      <c r="C56" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="D56" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="E56" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="F56" s="38"/>
+      <c r="G56" s="38"/>
+      <c r="H56" s="38"/>
+      <c r="I56" s="38"/>
+      <c r="J56" s="38"/>
+      <c r="K56" s="38"/>
+      <c r="L56" s="38"/>
+      <c r="M56" s="38"/>
+      <c r="N56" s="38"/>
+      <c r="O56" s="38"/>
+      <c r="P56" s="38"/>
+      <c r="Q56" s="38"/>
+      <c r="R56" s="38"/>
+      <c r="S56" s="38"/>
+      <c r="T56" s="38"/>
+      <c r="U56" s="38"/>
+      <c r="V56" s="38"/>
+      <c r="W56" s="38"/>
+      <c r="X56" s="38"/>
+      <c r="Y56" s="38"/>
+      <c r="Z56" s="39"/>
     </row>
     <row r="57" ht="15.0" customHeight="1">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
-      <c r="K57" s="2"/>
-      <c r="L57" s="2"/>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
-      <c r="P57" s="2"/>
-      <c r="Q57" s="2"/>
-      <c r="R57" s="2"/>
-      <c r="S57" s="2"/>
-      <c r="T57" s="2"/>
-      <c r="U57" s="2"/>
-      <c r="V57" s="2"/>
-      <c r="W57" s="2"/>
-      <c r="X57" s="2"/>
-      <c r="Y57" s="2"/>
-      <c r="Z57" s="2"/>
+      <c r="A57" s="40" t="s">
+        <v>209</v>
+      </c>
+      <c r="B57" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="C57" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="D57" s="42" t="s">
+        <v>211</v>
+      </c>
+      <c r="E57" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="F57" s="43"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="43"/>
+      <c r="I57" s="43"/>
+      <c r="J57" s="43"/>
+      <c r="K57" s="43"/>
+      <c r="L57" s="43"/>
+      <c r="M57" s="43"/>
+      <c r="N57" s="43"/>
+      <c r="O57" s="43"/>
+      <c r="P57" s="43"/>
+      <c r="Q57" s="43"/>
+      <c r="R57" s="43"/>
+      <c r="S57" s="43"/>
+      <c r="T57" s="43"/>
+      <c r="U57" s="43"/>
+      <c r="V57" s="43"/>
+      <c r="W57" s="43"/>
+      <c r="X57" s="43"/>
+      <c r="Y57" s="43"/>
+      <c r="Z57" s="44"/>
     </row>
     <row r="58" ht="15.0" customHeight="1">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
-      <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
-      <c r="P58" s="2"/>
-      <c r="Q58" s="2"/>
-      <c r="R58" s="2"/>
-      <c r="S58" s="2"/>
-      <c r="T58" s="2"/>
-      <c r="U58" s="2"/>
-      <c r="V58" s="2"/>
-      <c r="W58" s="2"/>
-      <c r="X58" s="2"/>
-      <c r="Y58" s="2"/>
-      <c r="Z58" s="2"/>
+      <c r="A58" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="B58" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="C58" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="D58" s="42" t="s">
+        <v>215</v>
+      </c>
+      <c r="E58" s="42" t="s">
+        <v>216</v>
+      </c>
+      <c r="F58" s="43"/>
+      <c r="G58" s="43"/>
+      <c r="H58" s="43"/>
+      <c r="I58" s="43"/>
+      <c r="J58" s="43"/>
+      <c r="K58" s="43"/>
+      <c r="L58" s="43"/>
+      <c r="M58" s="43"/>
+      <c r="N58" s="43"/>
+      <c r="O58" s="43"/>
+      <c r="P58" s="43"/>
+      <c r="Q58" s="43"/>
+      <c r="R58" s="43"/>
+      <c r="S58" s="43"/>
+      <c r="T58" s="43"/>
+      <c r="U58" s="43"/>
+      <c r="V58" s="43"/>
+      <c r="W58" s="43"/>
+      <c r="X58" s="43"/>
+      <c r="Y58" s="43"/>
+      <c r="Z58" s="44"/>
     </row>
     <row r="59" ht="15.0" customHeight="1">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
-      <c r="K59" s="2"/>
-      <c r="L59" s="2"/>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
-      <c r="P59" s="2"/>
-      <c r="Q59" s="2"/>
-      <c r="R59" s="2"/>
-      <c r="S59" s="2"/>
-      <c r="T59" s="2"/>
-      <c r="U59" s="2"/>
-      <c r="V59" s="2"/>
-      <c r="W59" s="2"/>
-      <c r="X59" s="2"/>
-      <c r="Y59" s="2"/>
-      <c r="Z59" s="2"/>
+      <c r="A59" s="40" t="s">
+        <v>217</v>
+      </c>
+      <c r="B59" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="C59" s="42" t="s">
+        <v>218</v>
+      </c>
+      <c r="D59" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="E59" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="F59" s="43"/>
+      <c r="G59" s="43"/>
+      <c r="H59" s="43"/>
+      <c r="I59" s="43"/>
+      <c r="J59" s="43"/>
+      <c r="K59" s="43"/>
+      <c r="L59" s="43"/>
+      <c r="M59" s="43"/>
+      <c r="N59" s="43"/>
+      <c r="O59" s="43"/>
+      <c r="P59" s="43"/>
+      <c r="Q59" s="43"/>
+      <c r="R59" s="43"/>
+      <c r="S59" s="43"/>
+      <c r="T59" s="43"/>
+      <c r="U59" s="43"/>
+      <c r="V59" s="43"/>
+      <c r="W59" s="43"/>
+      <c r="X59" s="43"/>
+      <c r="Y59" s="43"/>
+      <c r="Z59" s="44"/>
     </row>
     <row r="60" ht="15.0" customHeight="1">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
-      <c r="K60" s="2"/>
-      <c r="L60" s="2"/>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
-      <c r="P60" s="2"/>
-      <c r="Q60" s="2"/>
-      <c r="R60" s="2"/>
-      <c r="S60" s="2"/>
-      <c r="T60" s="2"/>
-      <c r="U60" s="2"/>
-      <c r="V60" s="2"/>
-      <c r="W60" s="2"/>
-      <c r="X60" s="2"/>
-      <c r="Y60" s="2"/>
-      <c r="Z60" s="2"/>
+      <c r="A60" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="B60" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="C60" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="D60" s="42" t="s">
+        <v>221</v>
+      </c>
+      <c r="E60" s="42" t="s">
+        <v>222</v>
+      </c>
+      <c r="F60" s="43"/>
+      <c r="G60" s="43"/>
+      <c r="H60" s="43"/>
+      <c r="I60" s="43"/>
+      <c r="J60" s="43"/>
+      <c r="K60" s="43"/>
+      <c r="L60" s="43"/>
+      <c r="M60" s="43"/>
+      <c r="N60" s="43"/>
+      <c r="O60" s="43"/>
+      <c r="P60" s="43"/>
+      <c r="Q60" s="43"/>
+      <c r="R60" s="43"/>
+      <c r="S60" s="43"/>
+      <c r="T60" s="43"/>
+      <c r="U60" s="43"/>
+      <c r="V60" s="43"/>
+      <c r="W60" s="43"/>
+      <c r="X60" s="43"/>
+      <c r="Y60" s="43"/>
+      <c r="Z60" s="44"/>
     </row>
     <row r="61" ht="15.0" customHeight="1">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
-      <c r="K61" s="2"/>
-      <c r="L61" s="2"/>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
-      <c r="P61" s="2"/>
-      <c r="Q61" s="2"/>
-      <c r="R61" s="2"/>
-      <c r="S61" s="2"/>
-      <c r="T61" s="2"/>
-      <c r="U61" s="2"/>
-      <c r="V61" s="2"/>
-      <c r="W61" s="2"/>
-      <c r="X61" s="2"/>
-      <c r="Y61" s="2"/>
-      <c r="Z61" s="2"/>
-    </row>
-    <row r="62" ht="15.0" customHeight="1">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
-      <c r="K62" s="2"/>
-      <c r="L62" s="2"/>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
-      <c r="P62" s="2"/>
-      <c r="Q62" s="2"/>
-      <c r="R62" s="2"/>
-      <c r="S62" s="2"/>
-      <c r="T62" s="2"/>
-      <c r="U62" s="2"/>
-      <c r="V62" s="2"/>
-      <c r="W62" s="2"/>
-      <c r="X62" s="2"/>
-      <c r="Y62" s="2"/>
-      <c r="Z62" s="2"/>
-    </row>
-    <row r="63" ht="15.0" customHeight="1">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
-      <c r="J63" s="2"/>
-      <c r="K63" s="2"/>
-      <c r="L63" s="2"/>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
-      <c r="P63" s="2"/>
-      <c r="Q63" s="2"/>
-      <c r="R63" s="2"/>
-      <c r="S63" s="2"/>
-      <c r="T63" s="2"/>
-      <c r="U63" s="2"/>
-      <c r="V63" s="2"/>
-      <c r="W63" s="2"/>
-      <c r="X63" s="2"/>
-      <c r="Y63" s="2"/>
-      <c r="Z63" s="2"/>
-    </row>
-    <row r="64" ht="15.0" customHeight="1">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
-      <c r="K64" s="2"/>
-      <c r="L64" s="2"/>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
-      <c r="P64" s="2"/>
-      <c r="Q64" s="2"/>
-      <c r="R64" s="2"/>
-      <c r="S64" s="2"/>
-      <c r="T64" s="2"/>
-      <c r="U64" s="2"/>
-      <c r="V64" s="2"/>
-      <c r="W64" s="2"/>
-      <c r="X64" s="2"/>
-      <c r="Y64" s="2"/>
-      <c r="Z64" s="2"/>
-    </row>
-    <row r="65" ht="15.0" customHeight="1">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
-      <c r="J65" s="2"/>
-      <c r="K65" s="2"/>
-      <c r="L65" s="2"/>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
-      <c r="P65" s="2"/>
-      <c r="Q65" s="2"/>
-      <c r="R65" s="2"/>
-      <c r="S65" s="2"/>
-      <c r="T65" s="2"/>
-      <c r="U65" s="2"/>
-      <c r="V65" s="2"/>
-      <c r="W65" s="2"/>
-      <c r="X65" s="2"/>
-      <c r="Y65" s="2"/>
-      <c r="Z65" s="2"/>
-    </row>
-    <row r="66" ht="15.0" customHeight="1">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
-      <c r="K66" s="2"/>
-      <c r="L66" s="2"/>
-      <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
-      <c r="O66" s="2"/>
-      <c r="P66" s="2"/>
-      <c r="Q66" s="2"/>
-      <c r="R66" s="2"/>
-      <c r="S66" s="2"/>
-      <c r="T66" s="2"/>
-      <c r="U66" s="2"/>
-      <c r="V66" s="2"/>
-      <c r="W66" s="2"/>
-      <c r="X66" s="2"/>
-      <c r="Y66" s="2"/>
-      <c r="Z66" s="2"/>
-    </row>
-    <row r="67" ht="15.0" customHeight="1">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
-      <c r="K67" s="2"/>
-      <c r="L67" s="2"/>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
-      <c r="P67" s="2"/>
-      <c r="Q67" s="2"/>
-      <c r="R67" s="2"/>
-      <c r="S67" s="2"/>
-      <c r="T67" s="2"/>
-      <c r="U67" s="2"/>
-      <c r="V67" s="2"/>
-      <c r="W67" s="2"/>
-      <c r="X67" s="2"/>
-      <c r="Y67" s="2"/>
-      <c r="Z67" s="2"/>
+      <c r="A61" s="40" t="s">
+        <v>223</v>
+      </c>
+      <c r="B61" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="C61" s="42" t="s">
+        <v>224</v>
+      </c>
+      <c r="D61" s="42" t="s">
+        <v>225</v>
+      </c>
+      <c r="E61" s="42" t="s">
+        <v>226</v>
+      </c>
+      <c r="F61" s="43"/>
+      <c r="G61" s="43"/>
+      <c r="H61" s="43"/>
+      <c r="I61" s="43"/>
+      <c r="J61" s="43"/>
+      <c r="K61" s="43"/>
+      <c r="L61" s="43"/>
+      <c r="M61" s="43"/>
+      <c r="N61" s="43"/>
+      <c r="O61" s="43"/>
+      <c r="P61" s="43"/>
+      <c r="Q61" s="43"/>
+      <c r="R61" s="43"/>
+      <c r="S61" s="43"/>
+      <c r="T61" s="43"/>
+      <c r="U61" s="43"/>
+      <c r="V61" s="43"/>
+      <c r="W61" s="43"/>
+      <c r="X61" s="43"/>
+      <c r="Y61" s="43"/>
+      <c r="Z61" s="44"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="B62" s="37">
+        <v>0.0</v>
+      </c>
+      <c r="C62" s="37" t="s">
+        <v>228</v>
+      </c>
+      <c r="D62" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="E62" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="F62" s="38"/>
+      <c r="G62" s="38"/>
+      <c r="H62" s="38"/>
+      <c r="I62" s="38"/>
+      <c r="J62" s="38"/>
+      <c r="K62" s="38"/>
+      <c r="L62" s="38"/>
+      <c r="M62" s="38"/>
+      <c r="N62" s="38"/>
+      <c r="O62" s="38"/>
+      <c r="P62" s="38"/>
+      <c r="Q62" s="38"/>
+      <c r="R62" s="38"/>
+      <c r="S62" s="38"/>
+      <c r="T62" s="38"/>
+      <c r="U62" s="38"/>
+      <c r="V62" s="38"/>
+      <c r="W62" s="38"/>
+      <c r="X62" s="38"/>
+      <c r="Y62" s="38"/>
+      <c r="Z62" s="39"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="B63" s="37">
+        <v>0.0</v>
+      </c>
+      <c r="C63" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="D63" s="37" t="s">
+        <v>231</v>
+      </c>
+      <c r="E63" s="37" t="s">
+        <v>232</v>
+      </c>
+      <c r="F63" s="38"/>
+      <c r="G63" s="38"/>
+      <c r="H63" s="38"/>
+      <c r="I63" s="38"/>
+      <c r="J63" s="38"/>
+      <c r="K63" s="38"/>
+      <c r="L63" s="38"/>
+      <c r="M63" s="38"/>
+      <c r="N63" s="38"/>
+      <c r="O63" s="38"/>
+      <c r="P63" s="38"/>
+      <c r="Q63" s="38"/>
+      <c r="R63" s="38"/>
+      <c r="S63" s="38"/>
+      <c r="T63" s="38"/>
+      <c r="U63" s="38"/>
+      <c r="V63" s="38"/>
+      <c r="W63" s="38"/>
+      <c r="X63" s="38"/>
+      <c r="Y63" s="38"/>
+      <c r="Z63" s="39"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="36" t="s">
+        <v>233</v>
+      </c>
+      <c r="B64" s="37">
+        <v>0.0</v>
+      </c>
+      <c r="C64" s="37" t="s">
+        <v>234</v>
+      </c>
+      <c r="D64" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="E64" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="F64" s="38"/>
+      <c r="G64" s="38"/>
+      <c r="H64" s="38"/>
+      <c r="I64" s="38"/>
+      <c r="J64" s="38"/>
+      <c r="K64" s="38"/>
+      <c r="L64" s="38"/>
+      <c r="M64" s="38"/>
+      <c r="N64" s="38"/>
+      <c r="O64" s="38"/>
+      <c r="P64" s="38"/>
+      <c r="Q64" s="38"/>
+      <c r="R64" s="38"/>
+      <c r="S64" s="38"/>
+      <c r="T64" s="38"/>
+      <c r="U64" s="38"/>
+      <c r="V64" s="38"/>
+      <c r="W64" s="38"/>
+      <c r="X64" s="38"/>
+      <c r="Y64" s="38"/>
+      <c r="Z64" s="39"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="B65" s="37">
+        <v>0.0</v>
+      </c>
+      <c r="C65" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="D65" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="E65" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="F65" s="45"/>
+      <c r="G65" s="45"/>
+      <c r="H65" s="45"/>
+      <c r="I65" s="45"/>
+      <c r="J65" s="45"/>
+      <c r="K65" s="45"/>
+      <c r="L65" s="45"/>
+      <c r="M65" s="45"/>
+      <c r="N65" s="45"/>
+      <c r="O65" s="45"/>
+      <c r="P65" s="45"/>
+      <c r="Q65" s="45"/>
+      <c r="R65" s="45"/>
+      <c r="S65" s="45"/>
+      <c r="T65" s="45"/>
+      <c r="U65" s="45"/>
+      <c r="V65" s="45"/>
+      <c r="W65" s="45"/>
+      <c r="X65" s="45"/>
+      <c r="Y65" s="45"/>
+      <c r="Z65" s="46"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="36" t="s">
+        <v>241</v>
+      </c>
+      <c r="B66" s="37">
+        <v>0.0</v>
+      </c>
+      <c r="C66" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="D66" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="E66" s="37" t="s">
+        <v>244</v>
+      </c>
+      <c r="F66" s="45"/>
+      <c r="G66" s="45"/>
+      <c r="H66" s="45"/>
+      <c r="I66" s="45"/>
+      <c r="J66" s="45"/>
+      <c r="K66" s="45"/>
+      <c r="L66" s="45"/>
+      <c r="M66" s="45"/>
+      <c r="N66" s="45"/>
+      <c r="O66" s="45"/>
+      <c r="P66" s="45"/>
+      <c r="Q66" s="45"/>
+      <c r="R66" s="45"/>
+      <c r="S66" s="45"/>
+      <c r="T66" s="45"/>
+      <c r="U66" s="45"/>
+      <c r="V66" s="45"/>
+      <c r="W66" s="45"/>
+      <c r="X66" s="45"/>
+      <c r="Y66" s="45"/>
+      <c r="Z66" s="46"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="B67" s="37">
+        <v>0.0</v>
+      </c>
+      <c r="C67" s="37" t="s">
+        <v>246</v>
+      </c>
+      <c r="D67" s="37" t="s">
+        <v>247</v>
+      </c>
+      <c r="E67" s="37" t="s">
+        <v>248</v>
+      </c>
+      <c r="F67" s="38"/>
+      <c r="G67" s="38"/>
+      <c r="H67" s="38"/>
+      <c r="I67" s="38"/>
+      <c r="J67" s="38"/>
+      <c r="K67" s="38"/>
+      <c r="L67" s="38"/>
+      <c r="M67" s="38"/>
+      <c r="N67" s="38"/>
+      <c r="O67" s="38"/>
+      <c r="P67" s="38"/>
+      <c r="Q67" s="38"/>
+      <c r="R67" s="38"/>
+      <c r="S67" s="38"/>
+      <c r="T67" s="38"/>
+      <c r="U67" s="38"/>
+      <c r="V67" s="38"/>
+      <c r="W67" s="38"/>
+      <c r="X67" s="38"/>
+      <c r="Y67" s="38"/>
+      <c r="Z67" s="39"/>
     </row>
     <row r="68" ht="15.0" customHeight="1">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
-      <c r="J68" s="2"/>
-      <c r="K68" s="2"/>
-      <c r="L68" s="2"/>
-      <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
-      <c r="P68" s="2"/>
-      <c r="Q68" s="2"/>
-      <c r="R68" s="2"/>
-      <c r="S68" s="2"/>
-      <c r="T68" s="2"/>
-      <c r="U68" s="2"/>
-      <c r="V68" s="2"/>
-      <c r="W68" s="2"/>
-      <c r="X68" s="2"/>
-      <c r="Y68" s="2"/>
-      <c r="Z68" s="2"/>
+      <c r="A68" s="36" t="s">
+        <v>249</v>
+      </c>
+      <c r="B68" s="37">
+        <v>0.0</v>
+      </c>
+      <c r="C68" s="37" t="s">
+        <v>250</v>
+      </c>
+      <c r="D68" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="E68" s="37" t="s">
+        <v>252</v>
+      </c>
+      <c r="F68" s="38"/>
+      <c r="G68" s="38"/>
+      <c r="H68" s="38"/>
+      <c r="I68" s="38"/>
+      <c r="J68" s="38"/>
+      <c r="K68" s="38"/>
+      <c r="L68" s="38"/>
+      <c r="M68" s="38"/>
+      <c r="N68" s="38"/>
+      <c r="O68" s="38"/>
+      <c r="P68" s="38"/>
+      <c r="Q68" s="38"/>
+      <c r="R68" s="38"/>
+      <c r="S68" s="38"/>
+      <c r="T68" s="38"/>
+      <c r="U68" s="38"/>
+      <c r="V68" s="38"/>
+      <c r="W68" s="38"/>
+      <c r="X68" s="38"/>
+      <c r="Y68" s="38"/>
+      <c r="Z68" s="39"/>
     </row>
     <row r="69" ht="15.0" customHeight="1">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
-      <c r="J69" s="2"/>
-      <c r="K69" s="2"/>
-      <c r="L69" s="2"/>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
-      <c r="P69" s="2"/>
-      <c r="Q69" s="2"/>
-      <c r="R69" s="2"/>
-      <c r="S69" s="2"/>
-      <c r="T69" s="2"/>
-      <c r="U69" s="2"/>
-      <c r="V69" s="2"/>
-      <c r="W69" s="2"/>
-      <c r="X69" s="2"/>
-      <c r="Y69" s="2"/>
-      <c r="Z69" s="2"/>
+      <c r="A69" s="36" t="s">
+        <v>253</v>
+      </c>
+      <c r="B69" s="37">
+        <v>0.0</v>
+      </c>
+      <c r="C69" s="37" t="s">
+        <v>254</v>
+      </c>
+      <c r="D69" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="E69" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="F69" s="38"/>
+      <c r="G69" s="38"/>
+      <c r="H69" s="38"/>
+      <c r="I69" s="38"/>
+      <c r="J69" s="38"/>
+      <c r="K69" s="38"/>
+      <c r="L69" s="38"/>
+      <c r="M69" s="38"/>
+      <c r="N69" s="38"/>
+      <c r="O69" s="38"/>
+      <c r="P69" s="38"/>
+      <c r="Q69" s="38"/>
+      <c r="R69" s="38"/>
+      <c r="S69" s="38"/>
+      <c r="T69" s="38"/>
+      <c r="U69" s="38"/>
+      <c r="V69" s="38"/>
+      <c r="W69" s="38"/>
+      <c r="X69" s="38"/>
+      <c r="Y69" s="38"/>
+      <c r="Z69" s="39"/>
     </row>
     <row r="70" ht="15.0" customHeight="1">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
-      <c r="J70" s="2"/>
-      <c r="K70" s="2"/>
-      <c r="L70" s="2"/>
-      <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
-      <c r="P70" s="2"/>
-      <c r="Q70" s="2"/>
-      <c r="R70" s="2"/>
-      <c r="S70" s="2"/>
-      <c r="T70" s="2"/>
-      <c r="U70" s="2"/>
-      <c r="V70" s="2"/>
-      <c r="W70" s="2"/>
-      <c r="X70" s="2"/>
-      <c r="Y70" s="2"/>
-      <c r="Z70" s="2"/>
+      <c r="A70" s="36" t="s">
+        <v>255</v>
+      </c>
+      <c r="B70" s="37">
+        <v>0.0</v>
+      </c>
+      <c r="C70" s="37" t="s">
+        <v>256</v>
+      </c>
+      <c r="D70" s="37" t="s">
+        <v>257</v>
+      </c>
+      <c r="E70" s="37" t="s">
+        <v>258</v>
+      </c>
+      <c r="F70" s="38"/>
+      <c r="G70" s="38"/>
+      <c r="H70" s="38"/>
+      <c r="I70" s="38"/>
+      <c r="J70" s="38"/>
+      <c r="K70" s="38"/>
+      <c r="L70" s="38"/>
+      <c r="M70" s="38"/>
+      <c r="N70" s="38"/>
+      <c r="O70" s="38"/>
+      <c r="P70" s="38"/>
+      <c r="Q70" s="38"/>
+      <c r="R70" s="38"/>
+      <c r="S70" s="38"/>
+      <c r="T70" s="38"/>
+      <c r="U70" s="38"/>
+      <c r="V70" s="38"/>
+      <c r="W70" s="38"/>
+      <c r="X70" s="38"/>
+      <c r="Y70" s="38"/>
+      <c r="Z70" s="39"/>
     </row>
     <row r="71" ht="15.0" customHeight="1">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
-      <c r="I71" s="2"/>
-      <c r="J71" s="2"/>
-      <c r="K71" s="2"/>
-      <c r="L71" s="2"/>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
-      <c r="P71" s="2"/>
-      <c r="Q71" s="2"/>
-      <c r="R71" s="2"/>
-      <c r="S71" s="2"/>
-      <c r="T71" s="2"/>
-      <c r="U71" s="2"/>
-      <c r="V71" s="2"/>
-      <c r="W71" s="2"/>
-      <c r="X71" s="2"/>
-      <c r="Y71" s="2"/>
-      <c r="Z71" s="2"/>
+      <c r="A71" s="47" t="s">
+        <v>259</v>
+      </c>
+      <c r="B71" s="37">
+        <v>0.0</v>
+      </c>
+      <c r="C71" s="37" t="s">
+        <v>260</v>
+      </c>
+      <c r="D71" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="E71" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="F71" s="38"/>
+      <c r="G71" s="38"/>
+      <c r="H71" s="38"/>
+      <c r="I71" s="38"/>
+      <c r="J71" s="38"/>
+      <c r="K71" s="38"/>
+      <c r="L71" s="38"/>
+      <c r="M71" s="38"/>
+      <c r="N71" s="38"/>
+      <c r="O71" s="38"/>
+      <c r="P71" s="38"/>
+      <c r="Q71" s="38"/>
+      <c r="R71" s="38"/>
+      <c r="S71" s="38"/>
+      <c r="T71" s="38"/>
+      <c r="U71" s="38"/>
+      <c r="V71" s="38"/>
+      <c r="W71" s="38"/>
+      <c r="X71" s="38"/>
+      <c r="Y71" s="38"/>
+      <c r="Z71" s="39"/>
     </row>
     <row r="72" ht="15.0" customHeight="1">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
-      <c r="I72" s="2"/>
-      <c r="J72" s="2"/>
-      <c r="K72" s="2"/>
-      <c r="L72" s="2"/>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
-      <c r="P72" s="2"/>
-      <c r="Q72" s="2"/>
-      <c r="R72" s="2"/>
-      <c r="S72" s="2"/>
-      <c r="T72" s="2"/>
-      <c r="U72" s="2"/>
-      <c r="V72" s="2"/>
-      <c r="W72" s="2"/>
-      <c r="X72" s="2"/>
-      <c r="Y72" s="2"/>
-      <c r="Z72" s="2"/>
+      <c r="A72" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="B72" s="37">
+        <v>0.0</v>
+      </c>
+      <c r="C72" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="D72" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="E72" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="F72" s="38"/>
+      <c r="G72" s="38"/>
+      <c r="H72" s="38"/>
+      <c r="I72" s="38"/>
+      <c r="J72" s="38"/>
+      <c r="K72" s="38"/>
+      <c r="L72" s="38"/>
+      <c r="M72" s="38"/>
+      <c r="N72" s="38"/>
+      <c r="O72" s="38"/>
+      <c r="P72" s="38"/>
+      <c r="Q72" s="38"/>
+      <c r="R72" s="38"/>
+      <c r="S72" s="38"/>
+      <c r="T72" s="38"/>
+      <c r="U72" s="38"/>
+      <c r="V72" s="38"/>
+      <c r="W72" s="38"/>
+      <c r="X72" s="38"/>
+      <c r="Y72" s="38"/>
+      <c r="Z72" s="39"/>
     </row>
     <row r="73" ht="15.0" customHeight="1">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
-      <c r="I73" s="2"/>
-      <c r="J73" s="2"/>
-      <c r="K73" s="2"/>
-      <c r="L73" s="2"/>
-      <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
-      <c r="O73" s="2"/>
-      <c r="P73" s="2"/>
-      <c r="Q73" s="2"/>
-      <c r="R73" s="2"/>
-      <c r="S73" s="2"/>
-      <c r="T73" s="2"/>
-      <c r="U73" s="2"/>
-      <c r="V73" s="2"/>
-      <c r="W73" s="2"/>
-      <c r="X73" s="2"/>
-      <c r="Y73" s="2"/>
-      <c r="Z73" s="2"/>
+      <c r="A73" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="B73" s="37">
+        <v>0.0</v>
+      </c>
+      <c r="C73" s="37" t="s">
+        <v>264</v>
+      </c>
+      <c r="D73" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="E73" s="37" t="s">
+        <v>266</v>
+      </c>
+      <c r="F73" s="38"/>
+      <c r="G73" s="38"/>
+      <c r="H73" s="38"/>
+      <c r="I73" s="38"/>
+      <c r="J73" s="38"/>
+      <c r="K73" s="38"/>
+      <c r="L73" s="38"/>
+      <c r="M73" s="38"/>
+      <c r="N73" s="38"/>
+      <c r="O73" s="38"/>
+      <c r="P73" s="38"/>
+      <c r="Q73" s="38"/>
+      <c r="R73" s="38"/>
+      <c r="S73" s="38"/>
+      <c r="T73" s="38"/>
+      <c r="U73" s="38"/>
+      <c r="V73" s="38"/>
+      <c r="W73" s="38"/>
+      <c r="X73" s="38"/>
+      <c r="Y73" s="38"/>
+      <c r="Z73" s="39"/>
     </row>
     <row r="74" ht="15.0" customHeight="1">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
-      <c r="I74" s="2"/>
-      <c r="J74" s="2"/>
-      <c r="K74" s="2"/>
-      <c r="L74" s="2"/>
-      <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
-      <c r="O74" s="2"/>
-      <c r="P74" s="2"/>
-      <c r="Q74" s="2"/>
-      <c r="R74" s="2"/>
-      <c r="S74" s="2"/>
-      <c r="T74" s="2"/>
-      <c r="U74" s="2"/>
-      <c r="V74" s="2"/>
-      <c r="W74" s="2"/>
-      <c r="X74" s="2"/>
-      <c r="Y74" s="2"/>
-      <c r="Z74" s="2"/>
+      <c r="A74" s="36" t="s">
+        <v>267</v>
+      </c>
+      <c r="B74" s="37">
+        <v>0.0</v>
+      </c>
+      <c r="C74" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="D74" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="E74" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="F74" s="38"/>
+      <c r="G74" s="38"/>
+      <c r="H74" s="38"/>
+      <c r="I74" s="38"/>
+      <c r="J74" s="38"/>
+      <c r="K74" s="38"/>
+      <c r="L74" s="38"/>
+      <c r="M74" s="38"/>
+      <c r="N74" s="38"/>
+      <c r="O74" s="38"/>
+      <c r="P74" s="38"/>
+      <c r="Q74" s="38"/>
+      <c r="R74" s="38"/>
+      <c r="S74" s="38"/>
+      <c r="T74" s="38"/>
+      <c r="U74" s="38"/>
+      <c r="V74" s="38"/>
+      <c r="W74" s="38"/>
+      <c r="X74" s="38"/>
+      <c r="Y74" s="38"/>
+      <c r="Z74" s="39"/>
     </row>
     <row r="75" ht="15.0" customHeight="1">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
-      <c r="I75" s="2"/>
-      <c r="J75" s="2"/>
-      <c r="K75" s="2"/>
-      <c r="L75" s="2"/>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
-      <c r="P75" s="2"/>
-      <c r="Q75" s="2"/>
-      <c r="R75" s="2"/>
-      <c r="S75" s="2"/>
-      <c r="T75" s="2"/>
-      <c r="U75" s="2"/>
-      <c r="V75" s="2"/>
-      <c r="W75" s="2"/>
-      <c r="X75" s="2"/>
-      <c r="Y75" s="2"/>
-      <c r="Z75" s="2"/>
+      <c r="A75" s="48" t="s">
+        <v>269</v>
+      </c>
+      <c r="B75" s="49">
+        <v>0.0</v>
+      </c>
+      <c r="C75" s="49" t="s">
+        <v>270</v>
+      </c>
+      <c r="D75" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="E75" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="F75" s="50"/>
+      <c r="G75" s="50"/>
+      <c r="H75" s="50"/>
+      <c r="I75" s="50"/>
+      <c r="J75" s="50"/>
+      <c r="K75" s="50"/>
+      <c r="L75" s="50"/>
+      <c r="M75" s="50"/>
+      <c r="N75" s="50"/>
+      <c r="O75" s="50"/>
+      <c r="P75" s="50"/>
+      <c r="Q75" s="50"/>
+      <c r="R75" s="50"/>
+      <c r="S75" s="50"/>
+      <c r="T75" s="50"/>
+      <c r="U75" s="50"/>
+      <c r="V75" s="50"/>
+      <c r="W75" s="50"/>
+      <c r="X75" s="50"/>
+      <c r="Y75" s="50"/>
+      <c r="Z75" s="51"/>
     </row>
     <row r="76" ht="15.0" customHeight="1">
       <c r="A76" s="2"/>
@@ -8254,7 +8796,7 @@
       <c r="Y242" s="2"/>
       <c r="Z242" s="2"/>
     </row>
-    <row r="243" ht="15.75" customHeight="1">
+    <row r="243" ht="15.0" customHeight="1">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -8282,7 +8824,7 @@
       <c r="Y243" s="2"/>
       <c r="Z243" s="2"/>
     </row>
-    <row r="244" ht="15.75" customHeight="1">
+    <row r="244" ht="15.0" customHeight="1">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -8310,7 +8852,7 @@
       <c r="Y244" s="2"/>
       <c r="Z244" s="2"/>
     </row>
-    <row r="245" ht="15.75" customHeight="1">
+    <row r="245" ht="15.0" customHeight="1">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -8338,7 +8880,7 @@
       <c r="Y245" s="2"/>
       <c r="Z245" s="2"/>
     </row>
-    <row r="246" ht="15.75" customHeight="1">
+    <row r="246" ht="15.0" customHeight="1">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -8366,7 +8908,7 @@
       <c r="Y246" s="2"/>
       <c r="Z246" s="2"/>
     </row>
-    <row r="247" ht="15.75" customHeight="1">
+    <row r="247" ht="15.0" customHeight="1">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -8394,7 +8936,7 @@
       <c r="Y247" s="2"/>
       <c r="Z247" s="2"/>
     </row>
-    <row r="248" ht="15.75" customHeight="1">
+    <row r="248" ht="15.0" customHeight="1">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -8422,7 +8964,7 @@
       <c r="Y248" s="2"/>
       <c r="Z248" s="2"/>
     </row>
-    <row r="249" ht="15.75" customHeight="1">
+    <row r="249" ht="15.0" customHeight="1">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -8450,7 +8992,7 @@
       <c r="Y249" s="2"/>
       <c r="Z249" s="2"/>
     </row>
-    <row r="250" ht="15.75" customHeight="1">
+    <row r="250" ht="15.0" customHeight="1">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -8478,7 +9020,7 @@
       <c r="Y250" s="2"/>
       <c r="Z250" s="2"/>
     </row>
-    <row r="251" ht="15.75" customHeight="1">
+    <row r="251" ht="15.0" customHeight="1">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -8506,7 +9048,7 @@
       <c r="Y251" s="2"/>
       <c r="Z251" s="2"/>
     </row>
-    <row r="252" ht="15.75" customHeight="1">
+    <row r="252" ht="15.0" customHeight="1">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -8534,7 +9076,7 @@
       <c r="Y252" s="2"/>
       <c r="Z252" s="2"/>
     </row>
-    <row r="253" ht="15.75" customHeight="1">
+    <row r="253" ht="15.0" customHeight="1">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -8562,7 +9104,7 @@
       <c r="Y253" s="2"/>
       <c r="Z253" s="2"/>
     </row>
-    <row r="254" ht="15.75" customHeight="1">
+    <row r="254" ht="15.0" customHeight="1">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -8590,7 +9132,7 @@
       <c r="Y254" s="2"/>
       <c r="Z254" s="2"/>
     </row>
-    <row r="255" ht="15.75" customHeight="1">
+    <row r="255" ht="15.0" customHeight="1">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -8618,7 +9160,7 @@
       <c r="Y255" s="2"/>
       <c r="Z255" s="2"/>
     </row>
-    <row r="256" ht="15.75" customHeight="1">
+    <row r="256" ht="15.0" customHeight="1">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -8646,7 +9188,7 @@
       <c r="Y256" s="2"/>
       <c r="Z256" s="2"/>
     </row>
-    <row r="257" ht="15.75" customHeight="1">
+    <row r="257" ht="15.0" customHeight="1">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -8674,7 +9216,7 @@
       <c r="Y257" s="2"/>
       <c r="Z257" s="2"/>
     </row>
-    <row r="258" ht="15.75" customHeight="1">
+    <row r="258" ht="15.0" customHeight="1">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -8702,7 +9244,7 @@
       <c r="Y258" s="2"/>
       <c r="Z258" s="2"/>
     </row>
-    <row r="259" ht="15.75" customHeight="1">
+    <row r="259" ht="15.0" customHeight="1">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -29898,6 +30440,482 @@
       <c r="Y1015" s="2"/>
       <c r="Z1015" s="2"/>
     </row>
+    <row r="1016" ht="15.75" customHeight="1">
+      <c r="A1016" s="2"/>
+      <c r="B1016" s="2"/>
+      <c r="C1016" s="2"/>
+      <c r="D1016" s="2"/>
+      <c r="E1016" s="2"/>
+      <c r="F1016" s="2"/>
+      <c r="G1016" s="2"/>
+      <c r="H1016" s="2"/>
+      <c r="I1016" s="2"/>
+      <c r="J1016" s="2"/>
+      <c r="K1016" s="2"/>
+      <c r="L1016" s="2"/>
+      <c r="M1016" s="2"/>
+      <c r="N1016" s="2"/>
+      <c r="O1016" s="2"/>
+      <c r="P1016" s="2"/>
+      <c r="Q1016" s="2"/>
+      <c r="R1016" s="2"/>
+      <c r="S1016" s="2"/>
+      <c r="T1016" s="2"/>
+      <c r="U1016" s="2"/>
+      <c r="V1016" s="2"/>
+      <c r="W1016" s="2"/>
+      <c r="X1016" s="2"/>
+      <c r="Y1016" s="2"/>
+      <c r="Z1016" s="2"/>
+    </row>
+    <row r="1017" ht="15.75" customHeight="1">
+      <c r="A1017" s="2"/>
+      <c r="B1017" s="2"/>
+      <c r="C1017" s="2"/>
+      <c r="D1017" s="2"/>
+      <c r="E1017" s="2"/>
+      <c r="F1017" s="2"/>
+      <c r="G1017" s="2"/>
+      <c r="H1017" s="2"/>
+      <c r="I1017" s="2"/>
+      <c r="J1017" s="2"/>
+      <c r="K1017" s="2"/>
+      <c r="L1017" s="2"/>
+      <c r="M1017" s="2"/>
+      <c r="N1017" s="2"/>
+      <c r="O1017" s="2"/>
+      <c r="P1017" s="2"/>
+      <c r="Q1017" s="2"/>
+      <c r="R1017" s="2"/>
+      <c r="S1017" s="2"/>
+      <c r="T1017" s="2"/>
+      <c r="U1017" s="2"/>
+      <c r="V1017" s="2"/>
+      <c r="W1017" s="2"/>
+      <c r="X1017" s="2"/>
+      <c r="Y1017" s="2"/>
+      <c r="Z1017" s="2"/>
+    </row>
+    <row r="1018" ht="15.75" customHeight="1">
+      <c r="A1018" s="2"/>
+      <c r="B1018" s="2"/>
+      <c r="C1018" s="2"/>
+      <c r="D1018" s="2"/>
+      <c r="E1018" s="2"/>
+      <c r="F1018" s="2"/>
+      <c r="G1018" s="2"/>
+      <c r="H1018" s="2"/>
+      <c r="I1018" s="2"/>
+      <c r="J1018" s="2"/>
+      <c r="K1018" s="2"/>
+      <c r="L1018" s="2"/>
+      <c r="M1018" s="2"/>
+      <c r="N1018" s="2"/>
+      <c r="O1018" s="2"/>
+      <c r="P1018" s="2"/>
+      <c r="Q1018" s="2"/>
+      <c r="R1018" s="2"/>
+      <c r="S1018" s="2"/>
+      <c r="T1018" s="2"/>
+      <c r="U1018" s="2"/>
+      <c r="V1018" s="2"/>
+      <c r="W1018" s="2"/>
+      <c r="X1018" s="2"/>
+      <c r="Y1018" s="2"/>
+      <c r="Z1018" s="2"/>
+    </row>
+    <row r="1019" ht="15.75" customHeight="1">
+      <c r="A1019" s="2"/>
+      <c r="B1019" s="2"/>
+      <c r="C1019" s="2"/>
+      <c r="D1019" s="2"/>
+      <c r="E1019" s="2"/>
+      <c r="F1019" s="2"/>
+      <c r="G1019" s="2"/>
+      <c r="H1019" s="2"/>
+      <c r="I1019" s="2"/>
+      <c r="J1019" s="2"/>
+      <c r="K1019" s="2"/>
+      <c r="L1019" s="2"/>
+      <c r="M1019" s="2"/>
+      <c r="N1019" s="2"/>
+      <c r="O1019" s="2"/>
+      <c r="P1019" s="2"/>
+      <c r="Q1019" s="2"/>
+      <c r="R1019" s="2"/>
+      <c r="S1019" s="2"/>
+      <c r="T1019" s="2"/>
+      <c r="U1019" s="2"/>
+      <c r="V1019" s="2"/>
+      <c r="W1019" s="2"/>
+      <c r="X1019" s="2"/>
+      <c r="Y1019" s="2"/>
+      <c r="Z1019" s="2"/>
+    </row>
+    <row r="1020" ht="15.75" customHeight="1">
+      <c r="A1020" s="2"/>
+      <c r="B1020" s="2"/>
+      <c r="C1020" s="2"/>
+      <c r="D1020" s="2"/>
+      <c r="E1020" s="2"/>
+      <c r="F1020" s="2"/>
+      <c r="G1020" s="2"/>
+      <c r="H1020" s="2"/>
+      <c r="I1020" s="2"/>
+      <c r="J1020" s="2"/>
+      <c r="K1020" s="2"/>
+      <c r="L1020" s="2"/>
+      <c r="M1020" s="2"/>
+      <c r="N1020" s="2"/>
+      <c r="O1020" s="2"/>
+      <c r="P1020" s="2"/>
+      <c r="Q1020" s="2"/>
+      <c r="R1020" s="2"/>
+      <c r="S1020" s="2"/>
+      <c r="T1020" s="2"/>
+      <c r="U1020" s="2"/>
+      <c r="V1020" s="2"/>
+      <c r="W1020" s="2"/>
+      <c r="X1020" s="2"/>
+      <c r="Y1020" s="2"/>
+      <c r="Z1020" s="2"/>
+    </row>
+    <row r="1021" ht="15.75" customHeight="1">
+      <c r="A1021" s="2"/>
+      <c r="B1021" s="2"/>
+      <c r="C1021" s="2"/>
+      <c r="D1021" s="2"/>
+      <c r="E1021" s="2"/>
+      <c r="F1021" s="2"/>
+      <c r="G1021" s="2"/>
+      <c r="H1021" s="2"/>
+      <c r="I1021" s="2"/>
+      <c r="J1021" s="2"/>
+      <c r="K1021" s="2"/>
+      <c r="L1021" s="2"/>
+      <c r="M1021" s="2"/>
+      <c r="N1021" s="2"/>
+      <c r="O1021" s="2"/>
+      <c r="P1021" s="2"/>
+      <c r="Q1021" s="2"/>
+      <c r="R1021" s="2"/>
+      <c r="S1021" s="2"/>
+      <c r="T1021" s="2"/>
+      <c r="U1021" s="2"/>
+      <c r="V1021" s="2"/>
+      <c r="W1021" s="2"/>
+      <c r="X1021" s="2"/>
+      <c r="Y1021" s="2"/>
+      <c r="Z1021" s="2"/>
+    </row>
+    <row r="1022" ht="15.75" customHeight="1">
+      <c r="A1022" s="2"/>
+      <c r="B1022" s="2"/>
+      <c r="C1022" s="2"/>
+      <c r="D1022" s="2"/>
+      <c r="E1022" s="2"/>
+      <c r="F1022" s="2"/>
+      <c r="G1022" s="2"/>
+      <c r="H1022" s="2"/>
+      <c r="I1022" s="2"/>
+      <c r="J1022" s="2"/>
+      <c r="K1022" s="2"/>
+      <c r="L1022" s="2"/>
+      <c r="M1022" s="2"/>
+      <c r="N1022" s="2"/>
+      <c r="O1022" s="2"/>
+      <c r="P1022" s="2"/>
+      <c r="Q1022" s="2"/>
+      <c r="R1022" s="2"/>
+      <c r="S1022" s="2"/>
+      <c r="T1022" s="2"/>
+      <c r="U1022" s="2"/>
+      <c r="V1022" s="2"/>
+      <c r="W1022" s="2"/>
+      <c r="X1022" s="2"/>
+      <c r="Y1022" s="2"/>
+      <c r="Z1022" s="2"/>
+    </row>
+    <row r="1023" ht="15.75" customHeight="1">
+      <c r="A1023" s="2"/>
+      <c r="B1023" s="2"/>
+      <c r="C1023" s="2"/>
+      <c r="D1023" s="2"/>
+      <c r="E1023" s="2"/>
+      <c r="F1023" s="2"/>
+      <c r="G1023" s="2"/>
+      <c r="H1023" s="2"/>
+      <c r="I1023" s="2"/>
+      <c r="J1023" s="2"/>
+      <c r="K1023" s="2"/>
+      <c r="L1023" s="2"/>
+      <c r="M1023" s="2"/>
+      <c r="N1023" s="2"/>
+      <c r="O1023" s="2"/>
+      <c r="P1023" s="2"/>
+      <c r="Q1023" s="2"/>
+      <c r="R1023" s="2"/>
+      <c r="S1023" s="2"/>
+      <c r="T1023" s="2"/>
+      <c r="U1023" s="2"/>
+      <c r="V1023" s="2"/>
+      <c r="W1023" s="2"/>
+      <c r="X1023" s="2"/>
+      <c r="Y1023" s="2"/>
+      <c r="Z1023" s="2"/>
+    </row>
+    <row r="1024" ht="15.75" customHeight="1">
+      <c r="A1024" s="2"/>
+      <c r="B1024" s="2"/>
+      <c r="C1024" s="2"/>
+      <c r="D1024" s="2"/>
+      <c r="E1024" s="2"/>
+      <c r="F1024" s="2"/>
+      <c r="G1024" s="2"/>
+      <c r="H1024" s="2"/>
+      <c r="I1024" s="2"/>
+      <c r="J1024" s="2"/>
+      <c r="K1024" s="2"/>
+      <c r="L1024" s="2"/>
+      <c r="M1024" s="2"/>
+      <c r="N1024" s="2"/>
+      <c r="O1024" s="2"/>
+      <c r="P1024" s="2"/>
+      <c r="Q1024" s="2"/>
+      <c r="R1024" s="2"/>
+      <c r="S1024" s="2"/>
+      <c r="T1024" s="2"/>
+      <c r="U1024" s="2"/>
+      <c r="V1024" s="2"/>
+      <c r="W1024" s="2"/>
+      <c r="X1024" s="2"/>
+      <c r="Y1024" s="2"/>
+      <c r="Z1024" s="2"/>
+    </row>
+    <row r="1025" ht="15.75" customHeight="1">
+      <c r="A1025" s="2"/>
+      <c r="B1025" s="2"/>
+      <c r="C1025" s="2"/>
+      <c r="D1025" s="2"/>
+      <c r="E1025" s="2"/>
+      <c r="F1025" s="2"/>
+      <c r="G1025" s="2"/>
+      <c r="H1025" s="2"/>
+      <c r="I1025" s="2"/>
+      <c r="J1025" s="2"/>
+      <c r="K1025" s="2"/>
+      <c r="L1025" s="2"/>
+      <c r="M1025" s="2"/>
+      <c r="N1025" s="2"/>
+      <c r="O1025" s="2"/>
+      <c r="P1025" s="2"/>
+      <c r="Q1025" s="2"/>
+      <c r="R1025" s="2"/>
+      <c r="S1025" s="2"/>
+      <c r="T1025" s="2"/>
+      <c r="U1025" s="2"/>
+      <c r="V1025" s="2"/>
+      <c r="W1025" s="2"/>
+      <c r="X1025" s="2"/>
+      <c r="Y1025" s="2"/>
+      <c r="Z1025" s="2"/>
+    </row>
+    <row r="1026" ht="15.75" customHeight="1">
+      <c r="A1026" s="2"/>
+      <c r="B1026" s="2"/>
+      <c r="C1026" s="2"/>
+      <c r="D1026" s="2"/>
+      <c r="E1026" s="2"/>
+      <c r="F1026" s="2"/>
+      <c r="G1026" s="2"/>
+      <c r="H1026" s="2"/>
+      <c r="I1026" s="2"/>
+      <c r="J1026" s="2"/>
+      <c r="K1026" s="2"/>
+      <c r="L1026" s="2"/>
+      <c r="M1026" s="2"/>
+      <c r="N1026" s="2"/>
+      <c r="O1026" s="2"/>
+      <c r="P1026" s="2"/>
+      <c r="Q1026" s="2"/>
+      <c r="R1026" s="2"/>
+      <c r="S1026" s="2"/>
+      <c r="T1026" s="2"/>
+      <c r="U1026" s="2"/>
+      <c r="V1026" s="2"/>
+      <c r="W1026" s="2"/>
+      <c r="X1026" s="2"/>
+      <c r="Y1026" s="2"/>
+      <c r="Z1026" s="2"/>
+    </row>
+    <row r="1027" ht="15.75" customHeight="1">
+      <c r="A1027" s="2"/>
+      <c r="B1027" s="2"/>
+      <c r="C1027" s="2"/>
+      <c r="D1027" s="2"/>
+      <c r="E1027" s="2"/>
+      <c r="F1027" s="2"/>
+      <c r="G1027" s="2"/>
+      <c r="H1027" s="2"/>
+      <c r="I1027" s="2"/>
+      <c r="J1027" s="2"/>
+      <c r="K1027" s="2"/>
+      <c r="L1027" s="2"/>
+      <c r="M1027" s="2"/>
+      <c r="N1027" s="2"/>
+      <c r="O1027" s="2"/>
+      <c r="P1027" s="2"/>
+      <c r="Q1027" s="2"/>
+      <c r="R1027" s="2"/>
+      <c r="S1027" s="2"/>
+      <c r="T1027" s="2"/>
+      <c r="U1027" s="2"/>
+      <c r="V1027" s="2"/>
+      <c r="W1027" s="2"/>
+      <c r="X1027" s="2"/>
+      <c r="Y1027" s="2"/>
+      <c r="Z1027" s="2"/>
+    </row>
+    <row r="1028" ht="15.75" customHeight="1">
+      <c r="A1028" s="2"/>
+      <c r="B1028" s="2"/>
+      <c r="C1028" s="2"/>
+      <c r="D1028" s="2"/>
+      <c r="E1028" s="2"/>
+      <c r="F1028" s="2"/>
+      <c r="G1028" s="2"/>
+      <c r="H1028" s="2"/>
+      <c r="I1028" s="2"/>
+      <c r="J1028" s="2"/>
+      <c r="K1028" s="2"/>
+      <c r="L1028" s="2"/>
+      <c r="M1028" s="2"/>
+      <c r="N1028" s="2"/>
+      <c r="O1028" s="2"/>
+      <c r="P1028" s="2"/>
+      <c r="Q1028" s="2"/>
+      <c r="R1028" s="2"/>
+      <c r="S1028" s="2"/>
+      <c r="T1028" s="2"/>
+      <c r="U1028" s="2"/>
+      <c r="V1028" s="2"/>
+      <c r="W1028" s="2"/>
+      <c r="X1028" s="2"/>
+      <c r="Y1028" s="2"/>
+      <c r="Z1028" s="2"/>
+    </row>
+    <row r="1029" ht="15.75" customHeight="1">
+      <c r="A1029" s="2"/>
+      <c r="B1029" s="2"/>
+      <c r="C1029" s="2"/>
+      <c r="D1029" s="2"/>
+      <c r="E1029" s="2"/>
+      <c r="F1029" s="2"/>
+      <c r="G1029" s="2"/>
+      <c r="H1029" s="2"/>
+      <c r="I1029" s="2"/>
+      <c r="J1029" s="2"/>
+      <c r="K1029" s="2"/>
+      <c r="L1029" s="2"/>
+      <c r="M1029" s="2"/>
+      <c r="N1029" s="2"/>
+      <c r="O1029" s="2"/>
+      <c r="P1029" s="2"/>
+      <c r="Q1029" s="2"/>
+      <c r="R1029" s="2"/>
+      <c r="S1029" s="2"/>
+      <c r="T1029" s="2"/>
+      <c r="U1029" s="2"/>
+      <c r="V1029" s="2"/>
+      <c r="W1029" s="2"/>
+      <c r="X1029" s="2"/>
+      <c r="Y1029" s="2"/>
+      <c r="Z1029" s="2"/>
+    </row>
+    <row r="1030" ht="15.75" customHeight="1">
+      <c r="A1030" s="2"/>
+      <c r="B1030" s="2"/>
+      <c r="C1030" s="2"/>
+      <c r="D1030" s="2"/>
+      <c r="E1030" s="2"/>
+      <c r="F1030" s="2"/>
+      <c r="G1030" s="2"/>
+      <c r="H1030" s="2"/>
+      <c r="I1030" s="2"/>
+      <c r="J1030" s="2"/>
+      <c r="K1030" s="2"/>
+      <c r="L1030" s="2"/>
+      <c r="M1030" s="2"/>
+      <c r="N1030" s="2"/>
+      <c r="O1030" s="2"/>
+      <c r="P1030" s="2"/>
+      <c r="Q1030" s="2"/>
+      <c r="R1030" s="2"/>
+      <c r="S1030" s="2"/>
+      <c r="T1030" s="2"/>
+      <c r="U1030" s="2"/>
+      <c r="V1030" s="2"/>
+      <c r="W1030" s="2"/>
+      <c r="X1030" s="2"/>
+      <c r="Y1030" s="2"/>
+      <c r="Z1030" s="2"/>
+    </row>
+    <row r="1031" ht="15.75" customHeight="1">
+      <c r="A1031" s="2"/>
+      <c r="B1031" s="2"/>
+      <c r="C1031" s="2"/>
+      <c r="D1031" s="2"/>
+      <c r="E1031" s="2"/>
+      <c r="F1031" s="2"/>
+      <c r="G1031" s="2"/>
+      <c r="H1031" s="2"/>
+      <c r="I1031" s="2"/>
+      <c r="J1031" s="2"/>
+      <c r="K1031" s="2"/>
+      <c r="L1031" s="2"/>
+      <c r="M1031" s="2"/>
+      <c r="N1031" s="2"/>
+      <c r="O1031" s="2"/>
+      <c r="P1031" s="2"/>
+      <c r="Q1031" s="2"/>
+      <c r="R1031" s="2"/>
+      <c r="S1031" s="2"/>
+      <c r="T1031" s="2"/>
+      <c r="U1031" s="2"/>
+      <c r="V1031" s="2"/>
+      <c r="W1031" s="2"/>
+      <c r="X1031" s="2"/>
+      <c r="Y1031" s="2"/>
+      <c r="Z1031" s="2"/>
+    </row>
+    <row r="1032" ht="15.75" customHeight="1">
+      <c r="A1032" s="2"/>
+      <c r="B1032" s="2"/>
+      <c r="C1032" s="2"/>
+      <c r="D1032" s="2"/>
+      <c r="E1032" s="2"/>
+      <c r="F1032" s="2"/>
+      <c r="G1032" s="2"/>
+      <c r="H1032" s="2"/>
+      <c r="I1032" s="2"/>
+      <c r="J1032" s="2"/>
+      <c r="K1032" s="2"/>
+      <c r="L1032" s="2"/>
+      <c r="M1032" s="2"/>
+      <c r="N1032" s="2"/>
+      <c r="O1032" s="2"/>
+      <c r="P1032" s="2"/>
+      <c r="Q1032" s="2"/>
+      <c r="R1032" s="2"/>
+      <c r="S1032" s="2"/>
+      <c r="T1032" s="2"/>
+      <c r="U1032" s="2"/>
+      <c r="V1032" s="2"/>
+      <c r="W1032" s="2"/>
+      <c r="X1032" s="2"/>
+      <c r="Y1032" s="2"/>
+      <c r="Z1032" s="2"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
